--- a/20250511report_table2.xlsx
+++ b/20250511report_table2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2025_RT_Reports\20250511_RT_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/hydroProjects/SWE/Sierras/paperwork/0_UCSB_DWR_Project/2025_RT_Reports/20250511_RT_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA54AA3-05FB-2643-BF66-29F3CA9BB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23265" yWindow="780" windowWidth="26205" windowHeight="27660" tabRatio="500"/>
+    <workbookView xWindow="23260" yWindow="780" windowWidth="26200" windowHeight="27660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2 (2)" sheetId="5" r:id="rId1"/>
@@ -19,15 +20,6 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -197,12 +189,6 @@
     <t>&gt; 5000'</t>
   </si>
   <si>
-    <t>Feather§</t>
-  </si>
-  <si>
-    <t>Kern§</t>
-  </si>
-  <si>
     <t>- Data omitted due to inconsistencies with independent SWE estimates.</t>
   </si>
   <si>
@@ -221,9 +207,6 @@
     <t>16.0 ( 1 )</t>
   </si>
   <si>
-    <t>Kings§</t>
-  </si>
-  <si>
     <t>Kaweah§</t>
   </si>
   <si>
@@ -404,18 +387,6 @@
     <t>American</t>
   </si>
   <si>
-    <t>Tuolumne</t>
-  </si>
-  <si>
-    <t>San Joaquin§</t>
-  </si>
-  <si>
-    <t>Truckee§</t>
-  </si>
-  <si>
-    <t>Tahoe§</t>
-  </si>
-  <si>
     <t>W. Carson§</t>
   </si>
   <si>
@@ -951,12 +922,33 @@
   </si>
   <si>
     <t>1.8 ( 2 )</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Tuolumne§</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Truckee</t>
+  </si>
+  <si>
+    <t>Tahoe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -1662,7 +1654,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1847,22 +1839,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="305">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2503,30 +2482,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
     <col min="3" max="4" width="9" style="76" customWidth="1"/>
     <col min="5" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="7.875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="76" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="7.83203125" style="37" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -2534,45 +2513,45 @@
         <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I1" s="71" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M1" s="54"/>
     </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>33</v>
@@ -2600,7 +2579,7 @@
       </c>
       <c r="M2" s="55"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>44</v>
       </c>
@@ -2623,23 +2602,23 @@
         <v>29.7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I3" s="68">
         <v>152.30000000000001</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K3" s="69" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L3" s="64">
         <v>6</v>
       </c>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="17" t="s">
         <v>0</v>
@@ -2660,23 +2639,23 @@
         <v>63</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I4" s="68">
         <v>133</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L4" s="65">
         <v>18.399999999999999</v>
       </c>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
@@ -2697,7 +2676,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I5" s="68">
         <v>35.1</v>
@@ -2713,7 +2692,7 @@
       </c>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="17" t="s">
         <v>45</v>
@@ -2734,7 +2713,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I6" s="68">
         <v>1</v>
@@ -2750,7 +2729,7 @@
       </c>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>38</v>
       </c>
@@ -2773,13 +2752,13 @@
         <v>27.6</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I7" s="28">
         <v>64.099999999999994</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" s="35" t="s">
         <v>41</v>
@@ -2789,7 +2768,7 @@
       </c>
       <c r="M7" s="56"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="17" t="s">
         <v>0</v>
@@ -2810,7 +2789,7 @@
         <v>61.8</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I8" s="20">
         <v>36.200000000000003</v>
@@ -2826,7 +2805,7 @@
       </c>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="17" t="s">
         <v>20</v>
@@ -2847,7 +2826,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I9" s="20">
         <v>8.8000000000000007</v>
@@ -2863,7 +2842,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -2884,7 +2863,7 @@
         <v>80.8</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I10" s="20">
         <v>2.2999999999999998</v>
@@ -2900,7 +2879,7 @@
       </c>
       <c r="M10" s="56"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="17" t="s">
         <v>22</v>
@@ -2921,7 +2900,7 @@
         <v>93.7</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I11" s="20">
         <v>1.7</v>
@@ -2937,7 +2916,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="17" t="s">
         <v>23</v>
@@ -2958,7 +2937,7 @@
         <v>83.7</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I12" s="20">
         <v>0.9</v>
@@ -2974,7 +2953,7 @@
       </c>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>24</v>
@@ -2995,7 +2974,7 @@
         <v>81.400000000000006</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I13" s="20">
         <v>1.2</v>
@@ -3010,7 +2989,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>39</v>
       </c>
@@ -3033,23 +3012,23 @@
         <v>29.8</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I14" s="28">
         <v>96.8</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L14" s="40">
         <v>11.6</v>
       </c>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="17" t="s">
         <v>0</v>
@@ -3070,7 +3049,7 @@
         <v>62.5</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I15" s="20">
         <v>41.7</v>
@@ -3086,7 +3065,7 @@
       </c>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="17" t="s">
         <v>20</v>
@@ -3107,7 +3086,7 @@
         <v>85.2</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I16" s="20">
         <v>14.2</v>
@@ -3123,7 +3102,7 @@
       </c>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -3144,7 +3123,7 @@
         <v>86.1</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20">
         <v>6.5</v>
@@ -3160,7 +3139,7 @@
       </c>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="17" t="s">
         <v>34</v>
@@ -3181,7 +3160,7 @@
         <v>87.2</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I18" s="20">
         <v>3.1</v>
@@ -3196,7 +3175,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="17" t="s">
         <v>35</v>
@@ -3217,7 +3196,7 @@
         <v>91.5</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I19" s="20">
         <v>1.4</v>
@@ -3232,7 +3211,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="17" t="s">
         <v>49</v>
@@ -3253,7 +3232,7 @@
         <v>91.3</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I20" s="20">
         <v>1.2</v>
@@ -3268,7 +3247,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>43</v>
       </c>
@@ -3291,22 +3270,22 @@
         <v>0.9</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I21" s="28">
         <v>1411.6</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L21" s="40">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="17" t="s">
         <v>0</v>
@@ -3327,23 +3306,23 @@
         <v>16.3</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I22" s="20">
         <v>503.6</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L22" s="38">
         <v>1.7</v>
       </c>
       <c r="M22" s="48"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="17" t="s">
         <v>20</v>
@@ -3364,22 +3343,22 @@
         <v>60.5</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I23" s="20">
         <v>129.4</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L23" s="38">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="17" t="s">
         <v>37</v>
@@ -3400,7 +3379,7 @@
         <v>81.3</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I24" s="20">
         <v>19.399999999999999</v>
@@ -3415,7 +3394,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="17" t="s">
         <v>46</v>
@@ -3436,7 +3415,7 @@
         <v>85.2</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I25" s="20">
         <v>1.9</v>
@@ -3451,7 +3430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>26</v>
       </c>
@@ -3474,7 +3453,7 @@
         <v>1.4</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I26" s="28">
         <v>156.1</v>
@@ -3489,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="17" t="s">
         <v>0</v>
@@ -3510,7 +3489,7 @@
         <v>33.6</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I27" s="20">
         <v>63.1</v>
@@ -3525,7 +3504,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="17" t="s">
         <v>36</v>
@@ -3546,7 +3525,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I28" s="20">
         <v>15.6</v>
@@ -3561,7 +3540,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="17" t="s">
         <v>37</v>
@@ -3582,7 +3561,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I29" s="20">
         <v>4.3</v>
@@ -3597,7 +3576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="17" t="s">
         <v>46</v>
@@ -3618,7 +3597,7 @@
         <v>96.2</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I30" s="20">
         <v>0.6</v>
@@ -3633,9 +3612,9 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>19</v>
@@ -3656,23 +3635,23 @@
         <v>1.8</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I31" s="28">
         <v>1229.7</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L31" s="40">
         <v>1.5</v>
       </c>
       <c r="M31" s="48"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="17" t="s">
         <v>0</v>
@@ -3693,22 +3672,22 @@
         <v>20</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I32" s="20">
         <v>730.7</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L32" s="38">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="17" t="s">
         <v>20</v>
@@ -3729,13 +3708,13 @@
         <v>48.2</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I33" s="20">
         <v>122.4</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>41</v>
@@ -3744,7 +3723,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="67" t="s">
         <v>48</v>
@@ -3765,7 +3744,7 @@
         <v>60.4</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I34" s="24">
         <v>4.8</v>
@@ -3780,9 +3759,9 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>19</v>
@@ -3803,7 +3782,7 @@
         <v>3.9</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I35" s="20">
         <v>191.1</v>
@@ -3818,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="17" t="s">
         <v>0</v>
@@ -3839,22 +3818,22 @@
         <v>54.8</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I36" s="20">
         <v>207.7</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L36" s="38">
         <v>10.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="17" t="s">
         <v>20</v>
@@ -3875,22 +3854,22 @@
         <v>85.2</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I37" s="20">
         <v>112.4</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L37" s="38">
         <v>20.3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="67" t="s">
         <v>48</v>
@@ -3911,7 +3890,7 @@
         <v>87.5</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I38" s="24">
         <v>5.2</v>
@@ -3926,9 +3905,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>19</v>
@@ -3949,22 +3928,22 @@
         <v>0.6</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I39" s="20">
         <v>289.5</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L39" s="38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
       <c r="B40" s="17" t="s">
         <v>0</v>
@@ -3985,22 +3964,22 @@
         <v>26.2</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I40" s="20">
         <v>264.7</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L40" s="38">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="17" t="s">
         <v>20</v>
@@ -4021,22 +4000,22 @@
         <v>62.9</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I41" s="20">
         <v>165.7</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L41" s="38">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="53"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -4057,22 +4036,22 @@
         <v>83.8</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I42" s="20">
         <v>68</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L42" s="38">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
       <c r="B43" s="21" t="s">
         <v>46</v>
@@ -4093,7 +4072,7 @@
         <v>85.7</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I43" s="24">
         <v>7.4</v>
@@ -4108,7 +4087,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>1</v>
       </c>
@@ -4131,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I44" s="20">
         <v>60.5</v>
@@ -4146,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
       <c r="B45" s="17" t="s">
         <v>0</v>
@@ -4167,7 +4146,7 @@
         <v>2.5</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I45" s="20">
         <v>23.7</v>
@@ -4182,7 +4161,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4203,7 +4182,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I46" s="24">
         <v>7.6</v>
@@ -4218,7 +4197,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="52" t="s">
         <v>3</v>
       </c>
@@ -4241,7 +4220,7 @@
         <v>0.1</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I47" s="20">
         <v>81.2</v>
@@ -4256,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
       <c r="B48" s="17" t="s">
         <v>0</v>
@@ -4277,7 +4256,7 @@
         <v>2.9</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I48" s="20">
         <v>63.1</v>
@@ -4292,7 +4271,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
       <c r="B49" s="17" t="s">
         <v>20</v>
@@ -4313,7 +4292,7 @@
         <v>52</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I49" s="20">
         <v>86.3</v>
@@ -4328,7 +4307,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -4349,22 +4328,22 @@
         <v>79.2</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I50" s="20">
         <v>76.900000000000006</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L50" s="38">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
       <c r="B51" s="21" t="s">
         <v>46</v>
@@ -4385,12 +4364,12 @@
         <v>78.7</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I51" s="20">
         <v>7.5</v>
       </c>
-      <c r="J51" s="78" t="s">
+      <c r="J51" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K51" s="61" t="s">
@@ -4400,7 +4379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I52" s="28">
         <v>105.2</v>
@@ -4438,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="50"/>
       <c r="B53" s="17" t="s">
         <v>0</v>
@@ -4459,12 +4438,12 @@
         <v>1.4</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I53" s="20">
         <v>129.69999999999999</v>
       </c>
-      <c r="J53" s="78" t="s">
+      <c r="J53" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K53" s="61" t="s">
@@ -4474,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="50"/>
       <c r="B54" s="17" t="s">
         <v>20</v>
@@ -4495,22 +4474,22 @@
         <v>27.5</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I54" s="20">
         <v>142.9</v>
       </c>
-      <c r="J54" s="78" t="s">
-        <v>88</v>
+      <c r="J54" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="K54" s="61" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L54" s="58">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="50"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -4531,22 +4510,22 @@
         <v>72.8</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I55" s="20">
         <v>115.4</v>
       </c>
-      <c r="J55" s="78" t="s">
-        <v>89</v>
+      <c r="J55" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="K55" s="61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L55" s="58">
         <v>16.2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="50"/>
       <c r="B56" s="17" t="s">
         <v>22</v>
@@ -4567,22 +4546,22 @@
         <v>84.8</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I56" s="20">
         <v>51.6</v>
       </c>
-      <c r="J56" s="78" t="s">
-        <v>90</v>
+      <c r="J56" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="K56" s="61" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L56" s="58">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="50"/>
       <c r="B57" s="17" t="s">
         <v>23</v>
@@ -4603,12 +4582,12 @@
         <v>75.7</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I57" s="20">
         <v>12.2</v>
       </c>
-      <c r="J57" s="78" t="s">
+      <c r="J57" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K57" s="61" t="s">
@@ -4618,7 +4597,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="9" t="s">
         <v>24</v>
@@ -4639,7 +4618,7 @@
         <v>56.7</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I58" s="30">
         <v>0.4</v>
@@ -4654,21 +4633,21 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="58"/>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>10</v>
       </c>
@@ -4676,44 +4655,44 @@
         <v>11</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I60" s="71" t="s">
         <v>14</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L60" s="57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>33</v>
@@ -4742,7 +4721,7 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>19</v>
@@ -4763,7 +4742,7 @@
         <v>0.1</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I62" s="20">
         <v>167.6</v>
@@ -4778,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="50"/>
       <c r="B63" s="17" t="s">
         <v>0</v>
@@ -4799,7 +4778,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I63" s="20">
         <v>140.69999999999999</v>
@@ -4814,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="50"/>
       <c r="B64" s="17" t="s">
         <v>20</v>
@@ -4835,22 +4814,22 @@
         <v>23.9</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I64" s="20">
         <v>148.5</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K64" s="33" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L64" s="38">
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="50"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -4871,22 +4850,22 @@
         <v>62.8</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I65" s="20">
         <v>166.1</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L65" s="38">
         <v>18.2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="50"/>
       <c r="B66" s="17" t="s">
         <v>22</v>
@@ -4907,22 +4886,22 @@
         <v>81.8</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I66" s="20">
         <v>174.8</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L66" s="38">
         <v>24.3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="50"/>
       <c r="B67" s="17" t="s">
         <v>23</v>
@@ -4943,7 +4922,7 @@
         <v>90.7</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I67" s="20">
         <v>86.3</v>
@@ -4958,7 +4937,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="50"/>
       <c r="B68" s="17" t="s">
         <v>8</v>
@@ -4979,7 +4958,7 @@
         <v>85.6</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I68" s="20">
         <v>23.9</v>
@@ -4994,7 +4973,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="50"/>
       <c r="B69" s="21" t="s">
         <v>9</v>
@@ -5015,7 +4994,7 @@
         <v>71</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I69" s="24">
         <v>2.4</v>
@@ -5030,9 +5009,9 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>19</v>
@@ -5053,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I70" s="20">
         <v>69.7</v>
@@ -5068,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="50"/>
       <c r="B71" s="17" t="s">
         <v>0</v>
@@ -5089,7 +5068,7 @@
         <v>0.1</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I71" s="20">
         <v>78.3</v>
@@ -5104,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="50"/>
       <c r="B72" s="17" t="s">
         <v>20</v>
@@ -5125,7 +5104,7 @@
         <v>10.5</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I72" s="20">
         <v>131.9</v>
@@ -5140,7 +5119,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="50"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -5161,22 +5140,22 @@
         <v>47.4</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I73" s="20">
         <v>122.8</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K73" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L73" s="38">
         <v>10.5</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="50"/>
       <c r="B74" s="17" t="s">
         <v>22</v>
@@ -5197,7 +5176,7 @@
         <v>77.5</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I74" s="20">
         <v>84.1</v>
@@ -5212,7 +5191,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="50"/>
       <c r="B75" s="17" t="s">
         <v>23</v>
@@ -5233,7 +5212,7 @@
         <v>84.4</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I75" s="20">
         <v>39.700000000000003</v>
@@ -5248,7 +5227,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="50"/>
       <c r="B76" s="17" t="s">
         <v>8</v>
@@ -5269,7 +5248,7 @@
         <v>85.5</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I76" s="20">
         <v>11.1</v>
@@ -5284,7 +5263,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="51"/>
       <c r="B77" s="21" t="s">
         <v>9</v>
@@ -5305,7 +5284,7 @@
         <v>93.2</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I77" s="24">
         <v>1.4</v>
@@ -5320,9 +5299,9 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>19</v>
@@ -5343,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I78" s="20">
         <v>133.9</v>
@@ -5358,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="50"/>
       <c r="B79" s="17" t="s">
         <v>0</v>
@@ -5379,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I79" s="20">
         <v>175.9</v>
       </c>
       <c r="J79" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K79" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L79" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="50"/>
       <c r="B80" s="17" t="s">
         <v>20</v>
@@ -5415,22 +5394,22 @@
         <v>3.8</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I80" s="20">
         <v>207.5</v>
       </c>
       <c r="J80" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K80" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L80" s="38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="50"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -5451,7 +5430,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I81" s="20">
         <v>195.2</v>
@@ -5466,7 +5445,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="50"/>
       <c r="B82" s="17" t="s">
         <v>22</v>
@@ -5487,22 +5466,22 @@
         <v>71.8</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I82" s="20">
         <v>200.6</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K82" s="33" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L82" s="38">
         <v>11.4</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="50"/>
       <c r="B83" s="17" t="s">
         <v>23</v>
@@ -5523,7 +5502,7 @@
         <v>86</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I83" s="20">
         <v>156.1</v>
@@ -5538,7 +5517,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="50"/>
       <c r="B84" s="17" t="s">
         <v>8</v>
@@ -5559,7 +5538,7 @@
         <v>87.1</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I84" s="20">
         <v>111.9</v>
@@ -5574,7 +5553,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="50"/>
       <c r="B85" s="17" t="s">
         <v>27</v>
@@ -5595,7 +5574,7 @@
         <v>83.4</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I85" s="20">
         <v>26.1</v>
@@ -5610,7 +5589,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="51"/>
       <c r="B86" s="21" t="s">
         <v>28</v>
@@ -5631,7 +5610,7 @@
         <v>89.2</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I86" s="24">
         <v>1.4</v>
@@ -5646,9 +5625,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="50" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>19</v>
@@ -5669,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I87" s="20">
         <v>95.3</v>
@@ -5684,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="50"/>
       <c r="B88" s="17" t="s">
         <v>0</v>
@@ -5705,7 +5684,7 @@
         <v>0.4</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I88" s="20">
         <v>127.1</v>
@@ -5720,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="50"/>
       <c r="B89" s="17" t="s">
         <v>20</v>
@@ -5741,7 +5720,7 @@
         <v>3.6</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I89" s="20">
         <v>168.2</v>
@@ -5756,7 +5735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="50"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -5777,13 +5756,13 @@
         <v>24.7</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I90" s="20">
         <v>209.9</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K90" s="33" t="s">
         <v>41</v>
@@ -5792,7 +5771,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="50"/>
       <c r="B91" s="17" t="s">
         <v>22</v>
@@ -5813,22 +5792,22 @@
         <v>60.1</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I91" s="20">
         <v>216.7</v>
       </c>
       <c r="J91" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K91" s="33" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L91" s="38">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="50"/>
       <c r="B92" s="17" t="s">
         <v>23</v>
@@ -5849,22 +5828,22 @@
         <v>76.099999999999994</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I92" s="20">
         <v>195.8</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K92" s="33" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L92" s="38">
         <v>15.2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="50"/>
       <c r="B93" s="17" t="s">
         <v>8</v>
@@ -5885,13 +5864,13 @@
         <v>77.3</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I93" s="20">
         <v>147.5</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K93" s="33" t="s">
         <v>18</v>
@@ -5900,7 +5879,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="50"/>
       <c r="B94" s="17" t="s">
         <v>27</v>
@@ -5921,7 +5900,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I94" s="20">
         <v>44</v>
@@ -5936,7 +5915,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="51"/>
       <c r="B95" s="21" t="s">
         <v>30</v>
@@ -5957,7 +5936,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I95" s="24">
         <v>2.8</v>
@@ -5972,9 +5951,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>19</v>
@@ -5995,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I96" s="20">
         <v>55.5</v>
@@ -6010,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="50"/>
       <c r="B97" s="17" t="s">
         <v>0</v>
@@ -6031,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I97" s="20">
         <v>59.5</v>
@@ -6046,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="50"/>
       <c r="B98" s="17" t="s">
         <v>20</v>
@@ -6067,7 +6046,7 @@
         <v>3.3</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I98" s="20">
         <v>60.1</v>
@@ -6082,7 +6061,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="50"/>
       <c r="B99" s="17" t="s">
         <v>21</v>
@@ -6103,7 +6082,7 @@
         <v>40.9</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I99" s="20">
         <v>56.8</v>
@@ -6118,7 +6097,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="50"/>
       <c r="B100" s="17" t="s">
         <v>22</v>
@@ -6139,13 +6118,13 @@
         <v>70.900000000000006</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I100" s="20">
         <v>43.4</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K100" s="33" t="s">
         <v>18</v>
@@ -6154,7 +6133,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
       <c r="B101" s="17" t="s">
         <v>23</v>
@@ -6175,7 +6154,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I101" s="20">
         <v>29.5</v>
@@ -6190,7 +6169,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="51"/>
       <c r="B102" s="21" t="s">
         <v>31</v>
@@ -6211,7 +6190,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I102" s="24">
         <v>9.3000000000000007</v>
@@ -6226,7 +6205,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="50" t="s">
         <v>6</v>
       </c>
@@ -6249,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I103" s="20">
         <v>51.6</v>
@@ -6264,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
       <c r="B104" s="17" t="s">
         <v>0</v>
@@ -6285,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I104" s="20">
         <v>40</v>
@@ -6300,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
       <c r="B105" s="17" t="s">
         <v>20</v>
@@ -6321,7 +6300,7 @@
         <v>1.7</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I105" s="20">
         <v>26.8</v>
@@ -6336,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -6357,7 +6336,7 @@
         <v>16.8</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I106" s="20">
         <v>15.2</v>
@@ -6372,7 +6351,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
       <c r="B107" s="21" t="s">
         <v>46</v>
@@ -6393,7 +6372,7 @@
         <v>69.8</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I107" s="20">
         <v>4.0999999999999996</v>
@@ -6408,9 +6387,9 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="52" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>19</v>
@@ -6431,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I108" s="28">
         <v>246.2</v>
@@ -6446,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="50"/>
       <c r="B109" s="17" t="s">
         <v>0</v>
@@ -6467,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I109" s="20">
         <v>341.5</v>
@@ -6482,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="50"/>
       <c r="B110" s="17" t="s">
         <v>20</v>
@@ -6503,7 +6482,7 @@
         <v>0.1</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I110" s="20">
         <v>326.60000000000002</v>
@@ -6518,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="50"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -6539,7 +6518,7 @@
         <v>2.7</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I111" s="20">
         <v>314.7</v>
@@ -6554,7 +6533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="50"/>
       <c r="B112" s="17" t="s">
         <v>22</v>
@@ -6575,22 +6554,22 @@
         <v>18.100000000000001</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I112" s="20">
         <v>189.2</v>
       </c>
       <c r="J112" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K112" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L112" s="38">
         <v>3.6</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="50"/>
       <c r="B113" s="17" t="s">
         <v>23</v>
@@ -6611,22 +6590,22 @@
         <v>53.9</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I113" s="20">
         <v>129.19999999999999</v>
       </c>
       <c r="J113" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K113" s="33" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L113" s="38">
         <v>10.9</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="50"/>
       <c r="B114" s="17" t="s">
         <v>8</v>
@@ -6647,7 +6626,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I114" s="20">
         <v>91.1</v>
@@ -6656,13 +6635,13 @@
         <v>18</v>
       </c>
       <c r="K114" s="33" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L114" s="38">
         <v>10.9</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="50"/>
       <c r="B115" s="17" t="s">
         <v>27</v>
@@ -6683,7 +6662,7 @@
         <v>73.599999999999994</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I115" s="20">
         <v>37.6</v>
@@ -6698,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="9" t="s">
         <v>30</v>
@@ -6719,7 +6698,7 @@
         <v>74</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I116" s="30">
         <v>5.9</v>
@@ -6734,21 +6713,21 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="50"/>
-      <c r="B117" s="80"/>
-      <c r="C117" s="81"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="82"/>
-      <c r="G117" s="82"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="78"/>
-      <c r="K117" s="78"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
       <c r="L117" s="38"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>10</v>
       </c>
@@ -6756,44 +6735,44 @@
         <v>11</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I118" s="71" t="s">
         <v>14</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L118" s="57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>33</v>
@@ -6820,9 +6799,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="49" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>19</v>
@@ -6843,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I120" s="20">
         <v>58.4</v>
@@ -6859,7 +6838,7 @@
       </c>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="50"/>
       <c r="B121" s="17" t="s">
         <v>0</v>
@@ -6880,22 +6859,22 @@
         <v>7.2</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I121" s="20">
         <v>203.5</v>
       </c>
       <c r="J121" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K121" s="33" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L121" s="38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="50"/>
       <c r="B122" s="17" t="s">
         <v>20</v>
@@ -6916,22 +6895,22 @@
         <v>50.8</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I122" s="20">
         <v>111.7</v>
       </c>
       <c r="J122" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K122" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L122" s="38">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="50"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -6952,7 +6931,7 @@
         <v>76.8</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I123" s="20">
         <v>30.5</v>
@@ -6967,7 +6946,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="50"/>
       <c r="B124" s="17" t="s">
         <v>22</v>
@@ -6988,7 +6967,7 @@
         <v>85.2</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I124" s="20">
         <v>7.4</v>
@@ -7003,7 +6982,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="51"/>
       <c r="B125" s="21" t="s">
         <v>23</v>
@@ -7024,7 +7003,7 @@
         <v>91.8</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I125" s="24">
         <v>0.5</v>
@@ -7039,9 +7018,9 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="52" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>0</v>
@@ -7062,23 +7041,23 @@
         <v>5.3</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I126" s="28">
         <v>112.5</v>
       </c>
       <c r="J126" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K126" s="35" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L126" s="40">
         <v>0.2</v>
       </c>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="50"/>
       <c r="B127" s="17" t="s">
         <v>20</v>
@@ -7099,22 +7078,22 @@
         <v>33.4</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I127" s="20">
         <v>105.5</v>
       </c>
       <c r="J127" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K127" s="33" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L127" s="38">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="50"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -7135,22 +7114,22 @@
         <v>63.6</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I128" s="20">
         <v>70.400000000000006</v>
       </c>
       <c r="J128" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K128" s="33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L128" s="38">
         <v>8.9</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="50"/>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -7171,7 +7150,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I129" s="20">
         <v>16.5</v>
@@ -7186,7 +7165,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="51"/>
       <c r="B130" s="21" t="s">
         <v>50</v>
@@ -7207,7 +7186,7 @@
         <v>69.2</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I130" s="24">
         <v>1.1000000000000001</v>
@@ -7223,9 +7202,9 @@
       </c>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>19</v>
@@ -7246,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I131" s="20">
         <v>0.3</v>
@@ -7261,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="50"/>
       <c r="B132" s="17" t="s">
         <v>0</v>
@@ -7282,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I132" s="20">
         <v>1.9</v>
@@ -7297,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="50"/>
       <c r="B133" s="17" t="s">
         <v>20</v>
@@ -7318,7 +7297,7 @@
         <v>7.9</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I133" s="20">
         <v>27.8</v>
@@ -7333,7 +7312,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="50"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -7354,22 +7333,22 @@
         <v>39.6</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I134" s="20">
         <v>27.7</v>
       </c>
       <c r="J134" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K134" s="33" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L134" s="38">
         <v>3.4</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="50"/>
       <c r="B135" s="17" t="s">
         <v>22</v>
@@ -7390,7 +7369,7 @@
         <v>57.7</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I135" s="20">
         <v>6.9</v>
@@ -7405,7 +7384,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="51"/>
       <c r="B136" s="21" t="s">
         <v>50</v>
@@ -7426,7 +7405,7 @@
         <v>75</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I136" s="24">
         <v>0.3</v>
@@ -7441,9 +7420,9 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B137" s="25" t="s">
         <v>19</v>
@@ -7464,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I137" s="28">
         <v>32.6</v>
@@ -7479,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="53"/>
       <c r="B138" s="17" t="s">
         <v>0</v>
@@ -7500,7 +7479,7 @@
         <v>0.2</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I138" s="20">
         <v>79.3</v>
@@ -7515,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="53"/>
       <c r="B139" s="17" t="s">
         <v>20</v>
@@ -7536,22 +7515,22 @@
         <v>8.1</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I139" s="20">
         <v>100.2</v>
       </c>
       <c r="J139" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K139" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L139" s="38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="53"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -7572,22 +7551,22 @@
         <v>41.2</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I140" s="20">
         <v>97.3</v>
       </c>
       <c r="J140" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K140" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L140" s="38">
         <v>5.6</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="53"/>
       <c r="B141" s="17" t="s">
         <v>22</v>
@@ -7608,7 +7587,7 @@
         <v>73.3</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I141" s="20">
         <v>34.700000000000003</v>
@@ -7623,7 +7602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="53"/>
       <c r="B142" s="17" t="s">
         <v>29</v>
@@ -7644,7 +7623,7 @@
         <v>80</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I142" s="20">
         <v>10.199999999999999</v>
@@ -7660,7 +7639,7 @@
       </c>
       <c r="M142" s="55"/>
     </row>
-    <row r="143" spans="1:23" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="52" t="s">
         <v>7</v>
       </c>
@@ -7683,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I143" s="28">
         <v>7.3</v>
@@ -7709,7 +7688,7 @@
       <c r="V143"/>
       <c r="W143"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="50"/>
       <c r="B144" s="17" t="s">
         <v>20</v>
@@ -7730,7 +7709,7 @@
         <v>1.2</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I144" s="20">
         <v>38.700000000000003</v>
@@ -7745,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="50"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -7766,22 +7745,22 @@
         <v>29.1</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I145" s="20">
         <v>46.1</v>
       </c>
       <c r="J145" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K145" s="33" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L145" s="38">
         <v>7.9</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="50"/>
       <c r="B146" s="17" t="s">
         <v>22</v>
@@ -7802,22 +7781,22 @@
         <v>76.2</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I146" s="20">
         <v>60.6</v>
       </c>
       <c r="J146" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K146" s="33" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L146" s="38">
         <v>21.9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="50"/>
       <c r="B147" s="17" t="s">
         <v>23</v>
@@ -7838,7 +7817,7 @@
         <v>82.6</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I147" s="20">
         <v>24.9</v>
@@ -7853,7 +7832,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="51"/>
       <c r="B148" s="21" t="s">
         <v>24</v>
@@ -7874,7 +7853,7 @@
         <v>80.8</v>
       </c>
       <c r="H148" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I148" s="24">
         <v>1.9</v>
@@ -7889,7 +7868,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="52" t="s">
         <v>2</v>
       </c>
@@ -7912,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I149" s="20">
         <v>56.9</v>
@@ -7927,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="50"/>
       <c r="B150" s="17" t="s">
         <v>20</v>
@@ -7948,7 +7927,7 @@
         <v>0.4</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I150" s="20">
         <v>110.5</v>
@@ -7963,7 +7942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="50"/>
       <c r="B151" s="17" t="s">
         <v>21</v>
@@ -7984,7 +7963,7 @@
         <v>6.5</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I151" s="20">
         <v>88.1</v>
@@ -7999,7 +7978,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="50"/>
       <c r="B152" s="17" t="s">
         <v>22</v>
@@ -8020,22 +7999,22 @@
         <v>47.3</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I152" s="20">
         <v>53.5</v>
       </c>
       <c r="J152" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K152" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L152" s="38">
         <v>11.1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="50"/>
       <c r="B153" s="17" t="s">
         <v>23</v>
@@ -8056,7 +8035,7 @@
         <v>63.1</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I153" s="20">
         <v>34.700000000000003</v>
@@ -8071,7 +8050,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="51"/>
       <c r="B154" s="21" t="s">
         <v>31</v>
@@ -8092,7 +8071,7 @@
         <v>60.1</v>
       </c>
       <c r="H154" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I154" s="24">
         <v>7.3</v>
@@ -8107,7 +8086,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="50" t="s">
         <v>42</v>
       </c>
@@ -8130,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I155" s="20">
         <v>298.3</v>
@@ -8145,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="50"/>
       <c r="B156" s="17" t="s">
         <v>20</v>
@@ -8166,7 +8145,7 @@
         <v>0.1</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I156" s="20">
         <v>389.9</v>
@@ -8181,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="50"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -8202,7 +8181,7 @@
         <v>1.9</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I157" s="20">
         <v>178.8</v>
@@ -8217,7 +8196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="50"/>
       <c r="B158" s="17" t="s">
         <v>22</v>
@@ -8238,7 +8217,7 @@
         <v>35.9</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I158" s="20">
         <v>63.2</v>
@@ -8253,7 +8232,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="50"/>
       <c r="B159" s="17" t="s">
         <v>23</v>
@@ -8274,7 +8253,7 @@
         <v>68</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I159" s="20">
         <v>46.3</v>
@@ -8289,7 +8268,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="50"/>
       <c r="B160" s="17" t="s">
         <v>8</v>
@@ -8310,7 +8289,7 @@
         <v>60.8</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I160" s="20">
         <v>23.7</v>
@@ -8325,7 +8304,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="51"/>
       <c r="B161" s="21" t="s">
         <v>9</v>
@@ -8346,7 +8325,7 @@
         <v>64.7</v>
       </c>
       <c r="H161" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I161" s="24">
         <v>4.2</v>
@@ -8361,7 +8340,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="50" t="s">
         <v>25</v>
       </c>
@@ -8384,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I162" s="20">
         <v>61.6</v>
@@ -8399,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="50"/>
       <c r="B163" s="17" t="s">
         <v>20</v>
@@ -8420,7 +8399,7 @@
         <v>0.8</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I163" s="20">
         <v>143.30000000000001</v>
@@ -8435,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="50"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -8456,7 +8435,7 @@
         <v>15.4</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I164" s="20">
         <v>75.3</v>
@@ -8471,7 +8450,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="50"/>
       <c r="B165" s="17" t="s">
         <v>22</v>
@@ -8492,22 +8471,22 @@
         <v>45</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I165" s="20">
         <v>43.9</v>
       </c>
       <c r="J165" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K165" s="33" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L165" s="38">
         <v>4.2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="50"/>
       <c r="B166" s="17" t="s">
         <v>23</v>
@@ -8528,7 +8507,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I166" s="20">
         <v>31.9</v>
@@ -8543,7 +8522,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="50"/>
       <c r="B167" s="17" t="s">
         <v>8</v>
@@ -8564,7 +8543,7 @@
         <v>68.5</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I167" s="20">
         <v>15.5</v>
@@ -8579,7 +8558,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="51"/>
       <c r="B168" s="21" t="s">
         <v>9</v>
@@ -8600,7 +8579,7 @@
         <v>74.7</v>
       </c>
       <c r="H168" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I168" s="24">
         <v>2.9</v>
@@ -8615,7 +8594,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="50" t="s">
         <v>4</v>
       </c>
@@ -8638,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I169" s="20">
         <v>421.9</v>
@@ -8653,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="50"/>
       <c r="B170" s="17" t="s">
         <v>0</v>
@@ -8674,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I170" s="20">
         <v>342.5</v>
@@ -8689,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="50"/>
       <c r="B171" s="17" t="s">
         <v>20</v>
@@ -8710,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I171" s="20">
         <v>314.8</v>
@@ -8725,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="50"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -8746,7 +8725,7 @@
         <v>1.4</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I172" s="20">
         <v>178.7</v>
@@ -8761,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="50"/>
       <c r="B173" s="17" t="s">
         <v>22</v>
@@ -8782,22 +8761,22 @@
         <v>11.2</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I173" s="20">
         <v>147.4</v>
       </c>
       <c r="J173" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K173" s="33" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L173" s="38">
         <v>0.6</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="50"/>
       <c r="B174" s="17" t="s">
         <v>23</v>
@@ -8818,22 +8797,22 @@
         <v>33.200000000000003</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I174" s="20">
         <v>163.69999999999999</v>
       </c>
       <c r="J174" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K174" s="33" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L174" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="50"/>
       <c r="B175" s="17" t="s">
         <v>8</v>
@@ -8854,7 +8833,7 @@
         <v>50</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I175" s="20">
         <v>131.9</v>
@@ -8869,7 +8848,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="50"/>
       <c r="B176" s="17" t="s">
         <v>27</v>
@@ -8890,7 +8869,7 @@
         <v>59.7</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I176" s="20">
         <v>62.1</v>
@@ -8905,7 +8884,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="9" t="s">
         <v>30</v>
@@ -8926,7 +8905,7 @@
         <v>59.5</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I177" s="30">
         <v>9.1999999999999993</v>
@@ -8941,30 +8920,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L178" s="42"/>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="79" t="s">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B179" s="79"/>
-      <c r="C179" s="79"/>
-      <c r="D179" s="79"/>
-      <c r="E179" s="79"/>
-      <c r="F179" s="79"/>
-      <c r="G179" s="79"/>
-      <c r="H179" s="79"/>
-      <c r="I179" s="79"/>
-      <c r="J179" s="79"/>
-      <c r="K179" s="79"/>
-      <c r="L179" s="79"/>
-      <c r="M179" s="79"/>
-      <c r="N179" s="79"/>
-      <c r="O179" s="79"/>
-      <c r="P179" s="79"/>
-    </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B179" s="78"/>
+      <c r="C179" s="78"/>
+      <c r="D179" s="78"/>
+      <c r="E179" s="78"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="78"/>
+      <c r="H179" s="78"/>
+      <c r="I179" s="78"/>
+      <c r="J179" s="78"/>
+      <c r="K179" s="78"/>
+      <c r="L179" s="78"/>
+      <c r="M179" s="78"/>
+      <c r="N179" s="78"/>
+      <c r="O179" s="78"/>
+      <c r="P179" s="78"/>
+    </row>
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="32" t="s">
         <v>51</v>
       </c>
@@ -8978,7 +8957,7 @@
       <c r="L180"/>
       <c r="P180" s="70"/>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="32" t="s">
         <v>32</v>
       </c>
@@ -8992,7 +8971,7 @@
       <c r="L181"/>
       <c r="P181" s="70"/>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="31" t="s">
         <v>16</v>
       </c>
@@ -9006,139 +8985,139 @@
       <c r="L182"/>
       <c r="P182" s="70"/>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L183" s="42"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L184" s="42"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L185" s="42"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L186" s="42"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L187" s="42"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L188" s="42"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L189" s="42"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L190" s="42"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L191" s="42"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L192" s="42"/>
     </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L193" s="42"/>
     </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L194" s="42"/>
     </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L195" s="42"/>
     </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L196" s="42"/>
     </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L197" s="42"/>
     </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L198" s="42"/>
     </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L199" s="42"/>
     </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L200" s="42"/>
     </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L201" s="42"/>
     </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L202" s="42"/>
     </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L203" s="42"/>
     </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L204" s="42"/>
     </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L205" s="42"/>
     </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L206" s="42"/>
     </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L207" s="42"/>
     </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L208" s="42"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L209" s="42"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L210" s="42"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L211" s="42"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L212" s="42"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L213" s="42"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L214" s="42"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L215" s="42"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L216" s="42"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L217" s="42"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L218" s="42"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L219" s="42"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L220" s="42"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L221" s="42"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L222" s="42"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L223" s="42"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L224" s="42"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L225" s="42"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="3"/>
       <c r="B226" s="5"/>
       <c r="C226" s="77"/>
@@ -9149,7 +9128,7 @@
       <c r="H226" s="77"/>
       <c r="L226" s="43"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="3"/>
       <c r="B227" s="5"/>
       <c r="C227" s="77"/>
@@ -9160,7 +9139,7 @@
       <c r="H227" s="77"/>
       <c r="L227" s="43"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="3"/>
       <c r="B228" s="5"/>
       <c r="C228" s="77"/>
@@ -9171,7 +9150,7 @@
       <c r="H228" s="77"/>
       <c r="L228" s="43"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="3"/>
       <c r="B229" s="6"/>
       <c r="E229"/>
@@ -9179,3493 +9158,3493 @@
       <c r="G229"/>
       <c r="L229" s="42"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B230" s="6"/>
       <c r="L230" s="42"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B231" s="6"/>
       <c r="L231" s="42"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B232" s="6"/>
       <c r="L232" s="42"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B233" s="6"/>
       <c r="L233" s="42"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B234" s="6"/>
       <c r="L234" s="42"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B235" s="6"/>
       <c r="L235" s="42"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L236" s="42"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L237" s="42"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L238" s="42"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L239" s="42"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L240" s="42"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L241" s="42"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L242" s="42"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L243" s="42"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L244" s="42"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L245" s="42"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L246" s="42"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L247" s="42"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L248" s="42"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L249" s="42"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L250" s="42"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L251" s="42"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L252" s="42"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L253" s="42"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L254" s="42"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L255" s="42"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L256" s="42"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L257" s="42"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L258" s="42"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L259" s="42"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L260" s="42"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L261" s="42"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L262" s="42"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L263" s="42"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L264" s="42"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L265" s="42"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L266" s="42"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L267" s="42"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L268" s="42"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L269" s="42"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L270" s="42"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L271" s="42"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L272" s="42"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L273" s="42"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L274" s="42"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L275" s="42"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L276" s="42"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L277" s="42"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L278" s="42"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L279" s="42"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L280" s="42"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L281" s="42"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L282" s="42"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L283" s="42"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L284" s="42"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L285" s="42"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L286" s="42"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L287" s="42"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L288" s="42"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L289" s="42"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L290" s="42"/>
     </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L291" s="42"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L292" s="42"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L293" s="42"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L294" s="42"/>
     </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L295" s="42"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L296" s="42"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L297" s="42"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L298" s="42"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L299" s="42"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L300" s="42"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L301" s="42"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L302" s="42"/>
     </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L303" s="42"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L304" s="42"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L305" s="42"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L306" s="42"/>
     </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L307" s="42"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L308" s="42"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L309" s="42"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L310" s="42"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L311" s="42"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L312" s="42"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L313" s="42"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L314" s="42"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L315" s="42"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L316" s="42"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L317" s="42"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L318" s="42"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L319" s="42"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L320" s="42"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L321" s="42"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L322" s="42"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L323" s="42"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L324" s="42"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L325" s="42"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L326" s="42"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L327" s="42"/>
     </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L328" s="42"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L329" s="42"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L330" s="42"/>
     </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L331" s="42"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L332" s="42"/>
     </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L333" s="42"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L334" s="42"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L335" s="42"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L336" s="42"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L337" s="42"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L338" s="42"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L339" s="42"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L340" s="42"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L341" s="42"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L342" s="42"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L343" s="42"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L344" s="42"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L345" s="42"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L346" s="42"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L347" s="42"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L348" s="42"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L349" s="42"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L350" s="42"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L351" s="42"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L352" s="42"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L353" s="42"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L354" s="42"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L355" s="42"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L356" s="42"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L357" s="42"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L358" s="42"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L359" s="42"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L360" s="42"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L361" s="42"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L362" s="42"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L363" s="42"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L364" s="42"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L365" s="42"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L366" s="42"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L367" s="42"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L368" s="42"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L369" s="42"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L370" s="42"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L371" s="42"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L372" s="42"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L373" s="42"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L374" s="42"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L375" s="42"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L376" s="42"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L377" s="42"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L378" s="42"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L379" s="42"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L380" s="42"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L381" s="42"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L382" s="42"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L383" s="42"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L384" s="42"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L385" s="42"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L386" s="42"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L387" s="42"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L388" s="42"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L389" s="42"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L390" s="42"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L391" s="42"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L392" s="42"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L393" s="42"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L394" s="42"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L395" s="42"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L396" s="42"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L397" s="42"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L398" s="42"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L399" s="42"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L400" s="42"/>
     </row>
-    <row r="401" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L401" s="42"/>
     </row>
-    <row r="402" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L402" s="42"/>
     </row>
-    <row r="403" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L403" s="42"/>
     </row>
-    <row r="404" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L404" s="42"/>
     </row>
-    <row r="405" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L405" s="42"/>
     </row>
-    <row r="406" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L406" s="42"/>
     </row>
-    <row r="407" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L407" s="42"/>
     </row>
-    <row r="408" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L408" s="42"/>
     </row>
-    <row r="409" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L409" s="42"/>
     </row>
-    <row r="410" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L410" s="42"/>
     </row>
-    <row r="411" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L411" s="42"/>
     </row>
-    <row r="412" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L412" s="42"/>
     </row>
-    <row r="413" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L413" s="42"/>
     </row>
-    <row r="414" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L414" s="42"/>
     </row>
-    <row r="415" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L415" s="42"/>
     </row>
-    <row r="416" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L416" s="42"/>
     </row>
-    <row r="417" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L417" s="42"/>
     </row>
-    <row r="418" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L418" s="42"/>
     </row>
-    <row r="419" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L419" s="42"/>
     </row>
-    <row r="420" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L420" s="42"/>
     </row>
-    <row r="421" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L421" s="42"/>
     </row>
-    <row r="422" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L422" s="42"/>
     </row>
-    <row r="423" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L423" s="42"/>
     </row>
-    <row r="424" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L424" s="42"/>
     </row>
-    <row r="425" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L425" s="42"/>
     </row>
-    <row r="426" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L426" s="42"/>
     </row>
-    <row r="427" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L427" s="42"/>
     </row>
-    <row r="428" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L428" s="42"/>
     </row>
-    <row r="429" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L429" s="42"/>
     </row>
-    <row r="430" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L430" s="42"/>
     </row>
-    <row r="431" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L431" s="42"/>
     </row>
-    <row r="432" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L432" s="42"/>
     </row>
-    <row r="433" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L433" s="42"/>
     </row>
-    <row r="434" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L434" s="42"/>
     </row>
-    <row r="435" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L435" s="42"/>
     </row>
-    <row r="436" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L436" s="42"/>
     </row>
-    <row r="437" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L437" s="42"/>
     </row>
-    <row r="438" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L438" s="42"/>
     </row>
-    <row r="439" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L439" s="42"/>
     </row>
-    <row r="440" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L440" s="42"/>
     </row>
-    <row r="441" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L441" s="42"/>
     </row>
-    <row r="442" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L442" s="42"/>
     </row>
-    <row r="443" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L443" s="42"/>
     </row>
-    <row r="444" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L444" s="42"/>
     </row>
-    <row r="445" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L445" s="42"/>
     </row>
-    <row r="446" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L446" s="42"/>
     </row>
-    <row r="447" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L447" s="42"/>
     </row>
-    <row r="448" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L448" s="42"/>
     </row>
-    <row r="449" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L449" s="42"/>
     </row>
-    <row r="450" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L450" s="42"/>
     </row>
-    <row r="451" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L451" s="42"/>
     </row>
-    <row r="452" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L452" s="42"/>
     </row>
-    <row r="453" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L453" s="42"/>
     </row>
-    <row r="454" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L454" s="42"/>
     </row>
-    <row r="455" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L455" s="42"/>
     </row>
-    <row r="456" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L456" s="42"/>
     </row>
-    <row r="457" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L457" s="42"/>
     </row>
-    <row r="458" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L458" s="42"/>
     </row>
-    <row r="459" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L459" s="42"/>
     </row>
-    <row r="460" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L460" s="42"/>
     </row>
-    <row r="461" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L461" s="42"/>
     </row>
-    <row r="462" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L462" s="42"/>
     </row>
-    <row r="463" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L463" s="42"/>
     </row>
-    <row r="464" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L464" s="42"/>
     </row>
-    <row r="465" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L465" s="42"/>
     </row>
-    <row r="466" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L466" s="42"/>
     </row>
-    <row r="467" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L467" s="42"/>
     </row>
-    <row r="468" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L468" s="42"/>
     </row>
-    <row r="469" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L469" s="42"/>
     </row>
-    <row r="470" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L470" s="42"/>
     </row>
-    <row r="471" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L471" s="42"/>
     </row>
-    <row r="472" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L472" s="42"/>
     </row>
-    <row r="473" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L473" s="42"/>
     </row>
-    <row r="474" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L474" s="42"/>
     </row>
-    <row r="475" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L475" s="42"/>
     </row>
-    <row r="476" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L476" s="42"/>
     </row>
-    <row r="477" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L477" s="42"/>
     </row>
-    <row r="478" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L478" s="42"/>
     </row>
-    <row r="479" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L479" s="42"/>
     </row>
-    <row r="480" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L480" s="42"/>
     </row>
-    <row r="481" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L481" s="42"/>
     </row>
-    <row r="482" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L482" s="42"/>
     </row>
-    <row r="483" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L483" s="42"/>
     </row>
-    <row r="484" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L484" s="42"/>
     </row>
-    <row r="485" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L485" s="42"/>
     </row>
-    <row r="486" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L486" s="42"/>
     </row>
-    <row r="487" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L487" s="42"/>
     </row>
-    <row r="488" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L488" s="42"/>
     </row>
-    <row r="489" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L489" s="42"/>
     </row>
-    <row r="490" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L490" s="42"/>
     </row>
-    <row r="491" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L491" s="42"/>
     </row>
-    <row r="492" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L492" s="42"/>
     </row>
-    <row r="493" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L493" s="42"/>
     </row>
-    <row r="494" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L494" s="42"/>
     </row>
-    <row r="495" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L495" s="42"/>
     </row>
-    <row r="496" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L496" s="42"/>
     </row>
-    <row r="497" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L497" s="42"/>
     </row>
-    <row r="498" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L498" s="42"/>
     </row>
-    <row r="499" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L499" s="42"/>
     </row>
-    <row r="500" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L500" s="42"/>
     </row>
-    <row r="501" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L501" s="42"/>
     </row>
-    <row r="502" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L502" s="42"/>
     </row>
-    <row r="503" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L503" s="42"/>
     </row>
-    <row r="504" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L504" s="42"/>
     </row>
-    <row r="505" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L505" s="42"/>
     </row>
-    <row r="506" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L506" s="42"/>
     </row>
-    <row r="507" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L507" s="42"/>
     </row>
-    <row r="508" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L508" s="42"/>
     </row>
-    <row r="509" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L509" s="42"/>
     </row>
-    <row r="510" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L510" s="42"/>
     </row>
-    <row r="511" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L511" s="42"/>
     </row>
-    <row r="512" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L512" s="42"/>
     </row>
-    <row r="513" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L513" s="42"/>
     </row>
-    <row r="514" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L514" s="42"/>
     </row>
-    <row r="515" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L515" s="42"/>
     </row>
-    <row r="516" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L516" s="42"/>
     </row>
-    <row r="517" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L517" s="42"/>
     </row>
-    <row r="518" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L518" s="42"/>
     </row>
-    <row r="519" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L519" s="42"/>
     </row>
-    <row r="520" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L520" s="42"/>
     </row>
-    <row r="521" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L521" s="42"/>
     </row>
-    <row r="522" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L522" s="42"/>
     </row>
-    <row r="523" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L523" s="42"/>
     </row>
-    <row r="524" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L524" s="42"/>
     </row>
-    <row r="525" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L525" s="42"/>
     </row>
-    <row r="526" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L526" s="42"/>
     </row>
-    <row r="527" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L527" s="42"/>
     </row>
-    <row r="528" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L528" s="42"/>
     </row>
-    <row r="529" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L529" s="42"/>
     </row>
-    <row r="530" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L530" s="42"/>
     </row>
-    <row r="531" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L531" s="42"/>
     </row>
-    <row r="532" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L532" s="42"/>
     </row>
-    <row r="533" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L533" s="42"/>
     </row>
-    <row r="534" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L534" s="42"/>
     </row>
-    <row r="535" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L535" s="42"/>
     </row>
-    <row r="536" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L536" s="42"/>
     </row>
-    <row r="537" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L537" s="42"/>
     </row>
-    <row r="538" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L538" s="42"/>
     </row>
-    <row r="539" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L539" s="42"/>
     </row>
-    <row r="540" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L540" s="42"/>
     </row>
-    <row r="541" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L541" s="42"/>
     </row>
-    <row r="542" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L542" s="42"/>
     </row>
-    <row r="543" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L543" s="42"/>
     </row>
-    <row r="544" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L544" s="42"/>
     </row>
-    <row r="545" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L545" s="42"/>
     </row>
-    <row r="546" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L546" s="42"/>
     </row>
-    <row r="547" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L547" s="42"/>
     </row>
-    <row r="548" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L548" s="42"/>
     </row>
-    <row r="549" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L549" s="42"/>
     </row>
-    <row r="550" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L550" s="42"/>
     </row>
-    <row r="551" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L551" s="42"/>
     </row>
-    <row r="552" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L552" s="42"/>
     </row>
-    <row r="553" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L553" s="42"/>
     </row>
-    <row r="554" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L554" s="42"/>
     </row>
-    <row r="555" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L555" s="42"/>
     </row>
-    <row r="556" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L556" s="42"/>
     </row>
-    <row r="557" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L557" s="42"/>
     </row>
-    <row r="558" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L558" s="42"/>
     </row>
-    <row r="559" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L559" s="42"/>
     </row>
-    <row r="560" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L560" s="42"/>
     </row>
-    <row r="561" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L561" s="42"/>
     </row>
-    <row r="562" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L562" s="42"/>
     </row>
-    <row r="563" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L563" s="42"/>
     </row>
-    <row r="564" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L564" s="42"/>
     </row>
-    <row r="565" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L565" s="42"/>
     </row>
-    <row r="566" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L566" s="42"/>
     </row>
-    <row r="567" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L567" s="42"/>
     </row>
-    <row r="568" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L568" s="42"/>
     </row>
-    <row r="569" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L569" s="42"/>
     </row>
-    <row r="570" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L570" s="42"/>
     </row>
-    <row r="571" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L571" s="42"/>
     </row>
-    <row r="572" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L572" s="42"/>
     </row>
-    <row r="573" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L573" s="42"/>
     </row>
-    <row r="574" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L574" s="42"/>
     </row>
-    <row r="575" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L575" s="42"/>
     </row>
-    <row r="576" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L576" s="42"/>
     </row>
-    <row r="577" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L577" s="42"/>
     </row>
-    <row r="578" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L578" s="42"/>
     </row>
-    <row r="579" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L579" s="42"/>
     </row>
-    <row r="580" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L580" s="42"/>
     </row>
-    <row r="581" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L581" s="42"/>
     </row>
-    <row r="582" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L582" s="42"/>
     </row>
-    <row r="583" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L583" s="42"/>
     </row>
-    <row r="584" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L584" s="42"/>
     </row>
-    <row r="585" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L585" s="42"/>
     </row>
-    <row r="586" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L586" s="42"/>
     </row>
-    <row r="587" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L587" s="42"/>
     </row>
-    <row r="588" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L588" s="42"/>
     </row>
-    <row r="589" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L589" s="42"/>
     </row>
-    <row r="590" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L590" s="42"/>
     </row>
-    <row r="591" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L591" s="42"/>
     </row>
-    <row r="592" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L592" s="42"/>
     </row>
-    <row r="593" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L593" s="42"/>
     </row>
-    <row r="594" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L594" s="42"/>
     </row>
-    <row r="595" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L595" s="42"/>
     </row>
-    <row r="596" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L596" s="42"/>
     </row>
-    <row r="597" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L597" s="42"/>
     </row>
-    <row r="598" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L598" s="42"/>
     </row>
-    <row r="599" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L599" s="42"/>
     </row>
-    <row r="600" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L600" s="42"/>
     </row>
-    <row r="601" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L601" s="42"/>
     </row>
-    <row r="602" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L602" s="42"/>
     </row>
-    <row r="603" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L603" s="42"/>
     </row>
-    <row r="604" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L604" s="42"/>
     </row>
-    <row r="605" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L605" s="42"/>
     </row>
-    <row r="606" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L606" s="42"/>
     </row>
-    <row r="607" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L607" s="42"/>
     </row>
-    <row r="608" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L608" s="42"/>
     </row>
-    <row r="609" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L609" s="42"/>
     </row>
-    <row r="610" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L610" s="42"/>
     </row>
-    <row r="611" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L611" s="42"/>
     </row>
-    <row r="612" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L612" s="42"/>
     </row>
-    <row r="613" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L613" s="42"/>
     </row>
-    <row r="614" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L614" s="42"/>
     </row>
-    <row r="615" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L615" s="42"/>
     </row>
-    <row r="616" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L616" s="42"/>
     </row>
-    <row r="617" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L617" s="42"/>
     </row>
-    <row r="618" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L618" s="42"/>
     </row>
-    <row r="619" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L619" s="42"/>
     </row>
-    <row r="620" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L620" s="42"/>
     </row>
-    <row r="621" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L621" s="42"/>
     </row>
-    <row r="622" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L622" s="42"/>
     </row>
-    <row r="623" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L623" s="42"/>
     </row>
-    <row r="624" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L624" s="42"/>
     </row>
-    <row r="625" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L625" s="42"/>
     </row>
-    <row r="626" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L626" s="42"/>
     </row>
-    <row r="627" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L627" s="42"/>
     </row>
-    <row r="628" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L628" s="42"/>
     </row>
-    <row r="629" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L629" s="42"/>
     </row>
-    <row r="630" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L630" s="42"/>
     </row>
-    <row r="631" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L631" s="42"/>
     </row>
-    <row r="632" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="632" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L632" s="42"/>
     </row>
-    <row r="633" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="633" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L633" s="42"/>
     </row>
-    <row r="634" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="634" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L634" s="42"/>
     </row>
-    <row r="635" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="635" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L635" s="42"/>
     </row>
-    <row r="636" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="636" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L636" s="42"/>
     </row>
-    <row r="637" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L637" s="42"/>
     </row>
-    <row r="638" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="638" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L638" s="42"/>
     </row>
-    <row r="639" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="639" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L639" s="42"/>
     </row>
-    <row r="640" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L640" s="42"/>
     </row>
-    <row r="641" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L641" s="42"/>
     </row>
-    <row r="642" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L642" s="42"/>
     </row>
-    <row r="643" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L643" s="42"/>
     </row>
-    <row r="644" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L644" s="42"/>
     </row>
-    <row r="645" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L645" s="42"/>
     </row>
-    <row r="646" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L646" s="42"/>
     </row>
-    <row r="647" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L647" s="42"/>
     </row>
-    <row r="648" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L648" s="42"/>
     </row>
-    <row r="649" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L649" s="42"/>
     </row>
-    <row r="650" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L650" s="42"/>
     </row>
-    <row r="651" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L651" s="42"/>
     </row>
-    <row r="652" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L652" s="42"/>
     </row>
-    <row r="653" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L653" s="42"/>
     </row>
-    <row r="654" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L654" s="42"/>
     </row>
-    <row r="655" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L655" s="42"/>
     </row>
-    <row r="656" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L656" s="42"/>
     </row>
-    <row r="657" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L657" s="42"/>
     </row>
-    <row r="658" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L658" s="42"/>
     </row>
-    <row r="659" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L659" s="42"/>
     </row>
-    <row r="660" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L660" s="42"/>
     </row>
-    <row r="661" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L661" s="42"/>
     </row>
-    <row r="662" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L662" s="42"/>
     </row>
-    <row r="663" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L663" s="42"/>
     </row>
-    <row r="664" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L664" s="42"/>
     </row>
-    <row r="665" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L665" s="42"/>
     </row>
-    <row r="666" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L666" s="42"/>
     </row>
-    <row r="667" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L667" s="42"/>
     </row>
-    <row r="668" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L668" s="42"/>
     </row>
-    <row r="669" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L669" s="42"/>
     </row>
-    <row r="670" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L670" s="42"/>
     </row>
-    <row r="671" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L671" s="42"/>
     </row>
-    <row r="672" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L672" s="42"/>
     </row>
-    <row r="673" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="673" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L673" s="42"/>
     </row>
-    <row r="674" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L674" s="42"/>
     </row>
-    <row r="675" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L675" s="42"/>
     </row>
-    <row r="676" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L676" s="42"/>
     </row>
-    <row r="677" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="677" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L677" s="42"/>
     </row>
-    <row r="678" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L678" s="42"/>
     </row>
-    <row r="679" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L679" s="42"/>
     </row>
-    <row r="680" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="680" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L680" s="42"/>
     </row>
-    <row r="681" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="681" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L681" s="42"/>
     </row>
-    <row r="682" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="682" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L682" s="42"/>
     </row>
-    <row r="683" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="683" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L683" s="42"/>
     </row>
-    <row r="684" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="684" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L684" s="42"/>
     </row>
-    <row r="685" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="685" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L685" s="42"/>
     </row>
-    <row r="686" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="686" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L686" s="42"/>
     </row>
-    <row r="687" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="687" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L687" s="42"/>
     </row>
-    <row r="688" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="688" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L688" s="42"/>
     </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L689" s="42"/>
     </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L690" s="42"/>
     </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L691" s="42"/>
     </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L692" s="42"/>
     </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L693" s="42"/>
     </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L694" s="42"/>
     </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L695" s="42"/>
     </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L696" s="42"/>
     </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L697" s="42"/>
     </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L698" s="42"/>
     </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L699" s="42"/>
     </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L700" s="42"/>
     </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="701" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L701" s="42"/>
     </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L702" s="42"/>
     </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L703" s="42"/>
     </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L704" s="42"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="705" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L705" s="42"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="706" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L706" s="42"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="707" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L707" s="42"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="708" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L708" s="42"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="709" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L709" s="42"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="710" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L710" s="42"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="711" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L711" s="42"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="712" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L712" s="42"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="713" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L713" s="42"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="714" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L714" s="42"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="715" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L715" s="42"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="716" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L716" s="42"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="717" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L717" s="42"/>
     </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="718" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L718" s="42"/>
     </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="719" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L719" s="42"/>
     </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="720" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L720" s="42"/>
     </row>
-    <row r="721" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="721" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L721" s="42"/>
     </row>
-    <row r="722" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="722" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L722" s="42"/>
     </row>
-    <row r="723" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="723" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L723" s="42"/>
     </row>
-    <row r="724" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="724" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L724" s="42"/>
     </row>
-    <row r="725" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="725" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L725" s="42"/>
     </row>
-    <row r="726" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="726" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L726" s="42"/>
     </row>
-    <row r="727" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="727" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L727" s="42"/>
     </row>
-    <row r="728" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="728" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L728" s="42"/>
     </row>
-    <row r="729" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="729" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L729" s="42"/>
     </row>
-    <row r="730" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="730" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L730" s="42"/>
     </row>
-    <row r="731" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="731" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L731" s="42"/>
     </row>
-    <row r="732" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="732" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L732" s="42"/>
     </row>
-    <row r="733" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="733" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L733" s="42"/>
     </row>
-    <row r="734" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="734" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L734" s="42"/>
     </row>
-    <row r="735" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="735" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L735" s="42"/>
     </row>
-    <row r="736" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="736" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L736" s="42"/>
     </row>
-    <row r="737" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="737" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L737" s="42"/>
     </row>
-    <row r="738" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="738" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L738" s="42"/>
     </row>
-    <row r="739" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="739" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L739" s="42"/>
     </row>
-    <row r="740" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="740" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L740" s="42"/>
     </row>
-    <row r="741" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="741" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L741" s="42"/>
     </row>
-    <row r="742" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="742" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L742" s="42"/>
     </row>
-    <row r="743" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="743" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L743" s="42"/>
     </row>
-    <row r="744" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="744" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L744" s="42"/>
     </row>
-    <row r="745" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="745" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L745" s="42"/>
     </row>
-    <row r="746" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="746" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L746" s="42"/>
     </row>
-    <row r="747" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="747" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L747" s="42"/>
     </row>
-    <row r="748" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="748" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L748" s="42"/>
     </row>
-    <row r="749" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="749" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L749" s="42"/>
     </row>
-    <row r="750" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="750" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L750" s="42"/>
     </row>
-    <row r="751" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="751" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L751" s="42"/>
     </row>
-    <row r="752" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="752" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L752" s="42"/>
     </row>
-    <row r="753" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="753" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L753" s="42"/>
     </row>
-    <row r="754" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="754" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L754" s="42"/>
     </row>
-    <row r="755" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="755" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L755" s="42"/>
     </row>
-    <row r="756" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="756" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L756" s="42"/>
     </row>
-    <row r="757" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="757" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L757" s="42"/>
     </row>
-    <row r="758" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="758" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L758" s="42"/>
     </row>
-    <row r="759" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="759" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L759" s="42"/>
     </row>
-    <row r="760" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="760" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L760" s="42"/>
     </row>
-    <row r="761" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="761" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L761" s="42"/>
     </row>
-    <row r="762" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="762" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L762" s="42"/>
     </row>
-    <row r="763" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="763" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L763" s="42"/>
     </row>
-    <row r="764" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="764" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L764" s="42"/>
     </row>
-    <row r="765" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="765" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L765" s="42"/>
     </row>
-    <row r="766" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="766" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L766" s="42"/>
     </row>
-    <row r="767" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="767" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L767" s="42"/>
     </row>
-    <row r="768" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="768" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L768" s="42"/>
     </row>
-    <row r="769" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="769" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L769" s="42"/>
     </row>
-    <row r="770" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="770" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L770" s="42"/>
     </row>
-    <row r="771" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="771" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L771" s="42"/>
     </row>
-    <row r="772" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="772" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L772" s="42"/>
     </row>
-    <row r="773" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="773" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L773" s="42"/>
     </row>
-    <row r="774" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="774" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L774" s="42"/>
     </row>
-    <row r="775" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="775" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L775" s="42"/>
     </row>
-    <row r="776" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="776" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L776" s="42"/>
     </row>
-    <row r="777" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="777" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L777" s="42"/>
     </row>
-    <row r="778" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="778" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L778" s="42"/>
     </row>
-    <row r="779" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="779" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L779" s="42"/>
     </row>
-    <row r="780" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="780" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L780" s="42"/>
     </row>
-    <row r="781" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="781" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L781" s="42"/>
     </row>
-    <row r="782" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="782" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L782" s="42"/>
     </row>
-    <row r="783" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="783" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L783" s="42"/>
     </row>
-    <row r="784" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="784" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L784" s="42"/>
     </row>
-    <row r="785" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="785" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L785" s="42"/>
     </row>
-    <row r="786" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="786" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L786" s="42"/>
     </row>
-    <row r="787" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="787" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L787" s="42"/>
     </row>
-    <row r="788" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="788" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L788" s="42"/>
     </row>
-    <row r="789" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="789" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L789" s="42"/>
     </row>
-    <row r="790" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="790" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L790" s="42"/>
     </row>
-    <row r="791" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="791" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L791" s="42"/>
     </row>
-    <row r="792" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="792" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L792" s="42"/>
     </row>
-    <row r="793" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="793" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L793" s="42"/>
     </row>
-    <row r="794" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="794" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L794" s="42"/>
     </row>
-    <row r="795" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="795" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L795" s="42"/>
     </row>
-    <row r="796" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="796" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L796" s="42"/>
     </row>
-    <row r="797" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="797" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L797" s="42"/>
     </row>
-    <row r="798" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="798" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L798" s="42"/>
     </row>
-    <row r="799" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="799" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L799" s="42"/>
     </row>
-    <row r="800" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="800" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L800" s="42"/>
     </row>
-    <row r="801" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="801" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L801" s="42"/>
     </row>
-    <row r="802" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="802" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L802" s="42"/>
     </row>
-    <row r="803" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="803" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L803" s="42"/>
     </row>
-    <row r="804" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="804" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L804" s="42"/>
     </row>
-    <row r="805" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="805" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L805" s="42"/>
     </row>
-    <row r="806" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="806" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L806" s="42"/>
     </row>
-    <row r="807" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="807" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L807" s="42"/>
     </row>
-    <row r="808" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="808" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L808" s="42"/>
     </row>
-    <row r="809" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="809" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L809" s="42"/>
     </row>
-    <row r="810" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="810" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L810" s="42"/>
     </row>
-    <row r="811" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="811" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L811" s="42"/>
     </row>
-    <row r="812" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="812" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L812" s="42"/>
     </row>
-    <row r="813" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="813" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L813" s="42"/>
     </row>
-    <row r="814" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="814" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L814" s="42"/>
     </row>
-    <row r="815" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="815" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L815" s="42"/>
     </row>
-    <row r="816" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="816" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L816" s="42"/>
     </row>
-    <row r="817" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="817" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L817" s="42"/>
     </row>
-    <row r="818" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="818" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L818" s="42"/>
     </row>
-    <row r="819" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="819" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L819" s="42"/>
     </row>
-    <row r="820" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="820" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L820" s="42"/>
     </row>
-    <row r="821" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="821" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L821" s="42"/>
     </row>
-    <row r="822" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="822" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L822" s="42"/>
     </row>
-    <row r="823" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="823" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L823" s="42"/>
     </row>
-    <row r="824" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="824" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L824" s="42"/>
     </row>
-    <row r="825" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="825" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L825" s="42"/>
     </row>
-    <row r="826" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="826" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L826" s="42"/>
     </row>
-    <row r="827" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="827" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L827" s="42"/>
     </row>
-    <row r="828" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="828" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L828" s="42"/>
     </row>
-    <row r="829" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="829" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L829" s="42"/>
     </row>
-    <row r="830" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="830" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L830" s="42"/>
     </row>
-    <row r="831" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="831" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L831" s="42"/>
     </row>
-    <row r="832" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="832" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L832" s="42"/>
     </row>
-    <row r="833" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="833" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L833" s="42"/>
     </row>
-    <row r="834" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="834" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L834" s="42"/>
     </row>
-    <row r="835" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="835" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L835" s="42"/>
     </row>
-    <row r="836" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="836" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L836" s="42"/>
     </row>
-    <row r="837" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="837" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L837" s="42"/>
     </row>
-    <row r="838" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="838" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L838" s="42"/>
     </row>
-    <row r="839" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="839" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L839" s="42"/>
     </row>
-    <row r="840" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="840" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L840" s="42"/>
     </row>
-    <row r="841" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="841" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L841" s="42"/>
     </row>
-    <row r="842" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="842" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L842" s="42"/>
     </row>
-    <row r="843" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="843" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L843" s="42"/>
     </row>
-    <row r="844" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="844" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L844" s="42"/>
     </row>
-    <row r="845" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="845" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L845" s="42"/>
     </row>
-    <row r="846" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="846" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L846" s="42"/>
     </row>
-    <row r="847" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="847" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L847" s="42"/>
     </row>
-    <row r="848" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="848" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L848" s="42"/>
     </row>
-    <row r="849" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="849" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L849" s="42"/>
     </row>
-    <row r="850" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="850" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L850" s="42"/>
     </row>
-    <row r="851" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="851" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L851" s="42"/>
     </row>
-    <row r="852" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="852" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L852" s="42"/>
     </row>
-    <row r="853" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="853" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L853" s="42"/>
     </row>
-    <row r="854" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="854" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L854" s="42"/>
     </row>
-    <row r="855" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="855" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L855" s="42"/>
     </row>
-    <row r="856" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="856" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L856" s="42"/>
     </row>
-    <row r="857" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="857" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L857" s="42"/>
     </row>
-    <row r="858" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="858" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L858" s="42"/>
     </row>
-    <row r="859" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="859" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L859" s="42"/>
     </row>
-    <row r="860" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="860" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L860" s="42"/>
     </row>
-    <row r="861" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="861" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L861" s="42"/>
     </row>
-    <row r="862" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="862" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L862" s="42"/>
     </row>
-    <row r="863" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="863" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L863" s="42"/>
     </row>
-    <row r="864" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="864" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L864" s="42"/>
     </row>
-    <row r="865" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="865" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L865" s="42"/>
     </row>
-    <row r="866" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="866" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L866" s="42"/>
     </row>
-    <row r="867" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="867" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L867" s="42"/>
     </row>
-    <row r="868" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="868" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L868" s="42"/>
     </row>
-    <row r="869" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="869" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L869" s="42"/>
     </row>
-    <row r="870" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="870" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L870" s="42"/>
     </row>
-    <row r="871" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="871" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L871" s="42"/>
     </row>
-    <row r="872" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="872" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L872" s="42"/>
     </row>
-    <row r="873" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="873" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L873" s="42"/>
     </row>
-    <row r="874" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="874" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L874" s="42"/>
     </row>
-    <row r="875" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="875" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L875" s="42"/>
     </row>
-    <row r="876" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="876" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L876" s="42"/>
     </row>
-    <row r="877" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="877" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L877" s="42"/>
     </row>
-    <row r="878" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="878" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L878" s="42"/>
     </row>
-    <row r="879" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="879" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L879" s="42"/>
     </row>
-    <row r="880" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="880" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L880" s="42"/>
     </row>
-    <row r="881" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="881" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L881" s="42"/>
     </row>
-    <row r="882" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="882" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L882" s="42"/>
     </row>
-    <row r="883" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="883" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L883" s="42"/>
     </row>
-    <row r="884" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="884" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L884" s="42"/>
     </row>
-    <row r="885" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="885" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L885" s="42"/>
     </row>
-    <row r="886" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="886" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L886" s="42"/>
     </row>
-    <row r="887" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="887" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L887" s="42"/>
     </row>
-    <row r="888" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="888" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L888" s="42"/>
     </row>
-    <row r="889" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="889" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L889" s="42"/>
     </row>
-    <row r="890" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="890" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L890" s="42"/>
     </row>
-    <row r="891" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="891" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L891" s="42"/>
     </row>
-    <row r="892" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="892" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L892" s="42"/>
     </row>
-    <row r="893" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="893" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L893" s="42"/>
     </row>
-    <row r="894" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="894" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L894" s="42"/>
     </row>
-    <row r="895" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="895" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L895" s="42"/>
     </row>
-    <row r="896" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="896" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L896" s="42"/>
     </row>
-    <row r="897" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="897" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L897" s="42"/>
     </row>
-    <row r="898" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="898" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L898" s="42"/>
     </row>
-    <row r="899" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="899" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L899" s="42"/>
     </row>
-    <row r="900" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="900" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L900" s="42"/>
     </row>
-    <row r="901" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="901" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L901" s="42"/>
     </row>
-    <row r="902" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="902" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L902" s="42"/>
     </row>
-    <row r="903" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="903" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L903" s="42"/>
     </row>
-    <row r="904" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="904" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L904" s="42"/>
     </row>
-    <row r="905" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="905" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L905" s="42"/>
     </row>
-    <row r="906" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="906" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L906" s="42"/>
     </row>
-    <row r="907" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="907" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L907" s="42"/>
     </row>
-    <row r="908" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="908" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L908" s="42"/>
     </row>
-    <row r="909" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="909" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L909" s="42"/>
     </row>
-    <row r="910" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="910" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L910" s="42"/>
     </row>
-    <row r="911" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="911" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L911" s="42"/>
     </row>
-    <row r="912" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="912" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L912" s="42"/>
     </row>
-    <row r="913" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="913" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L913" s="42"/>
     </row>
-    <row r="914" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="914" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L914" s="42"/>
     </row>
-    <row r="915" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="915" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L915" s="42"/>
     </row>
-    <row r="916" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="916" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L916" s="42"/>
     </row>
-    <row r="917" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="917" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L917" s="42"/>
     </row>
-    <row r="918" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="918" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L918" s="42"/>
     </row>
-    <row r="919" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="919" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L919" s="42"/>
     </row>
-    <row r="920" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="920" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L920" s="42"/>
     </row>
-    <row r="921" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="921" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L921" s="42"/>
     </row>
-    <row r="922" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="922" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L922" s="42"/>
     </row>
-    <row r="923" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="923" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L923" s="42"/>
     </row>
-    <row r="924" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="924" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L924" s="42"/>
     </row>
-    <row r="925" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="925" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L925" s="42"/>
     </row>
-    <row r="926" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="926" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L926" s="42"/>
     </row>
-    <row r="927" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="927" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L927" s="42"/>
     </row>
-    <row r="928" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="928" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L928" s="42"/>
     </row>
-    <row r="929" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="929" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L929" s="42"/>
     </row>
-    <row r="930" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="930" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L930" s="42"/>
     </row>
-    <row r="931" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="931" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L931" s="42"/>
     </row>
-    <row r="932" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="932" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L932" s="42"/>
     </row>
-    <row r="933" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="933" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L933" s="42"/>
     </row>
-    <row r="934" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="934" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L934" s="42"/>
     </row>
-    <row r="935" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="935" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L935" s="42"/>
     </row>
-    <row r="936" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="936" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L936" s="42"/>
     </row>
-    <row r="937" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="937" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L937" s="42"/>
     </row>
-    <row r="938" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="938" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L938" s="42"/>
     </row>
-    <row r="939" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="939" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L939" s="42"/>
     </row>
-    <row r="940" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="940" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L940" s="42"/>
     </row>
-    <row r="941" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="941" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L941" s="42"/>
     </row>
-    <row r="942" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="942" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L942" s="42"/>
     </row>
-    <row r="943" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="943" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L943" s="42"/>
     </row>
-    <row r="944" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="944" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L944" s="42"/>
     </row>
-    <row r="945" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="945" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L945" s="42"/>
     </row>
-    <row r="946" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="946" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L946" s="42"/>
     </row>
-    <row r="947" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="947" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L947" s="42"/>
     </row>
-    <row r="948" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="948" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L948" s="42"/>
     </row>
-    <row r="949" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="949" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L949" s="42"/>
     </row>
-    <row r="950" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="950" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L950" s="42"/>
     </row>
-    <row r="951" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="951" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L951" s="42"/>
     </row>
-    <row r="952" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="952" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L952" s="42"/>
     </row>
-    <row r="953" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="953" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L953" s="42"/>
     </row>
-    <row r="954" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="954" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L954" s="42"/>
     </row>
-    <row r="955" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="955" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L955" s="42"/>
     </row>
-    <row r="956" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="956" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L956" s="42"/>
     </row>
-    <row r="957" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="957" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L957" s="42"/>
     </row>
-    <row r="958" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="958" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L958" s="42"/>
     </row>
-    <row r="959" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="959" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L959" s="42"/>
     </row>
-    <row r="960" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="960" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L960" s="42"/>
     </row>
-    <row r="961" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="961" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L961" s="42"/>
     </row>
-    <row r="962" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="962" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L962" s="42"/>
     </row>
-    <row r="963" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="963" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L963" s="42"/>
     </row>
-    <row r="964" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="964" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L964" s="42"/>
     </row>
-    <row r="965" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="965" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L965" s="42"/>
     </row>
-    <row r="966" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="966" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L966" s="42"/>
     </row>
-    <row r="967" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="967" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L967" s="42"/>
     </row>
-    <row r="968" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="968" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L968" s="42"/>
     </row>
-    <row r="969" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="969" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L969" s="42"/>
     </row>
-    <row r="970" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="970" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L970" s="42"/>
     </row>
-    <row r="971" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="971" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L971" s="42"/>
     </row>
-    <row r="972" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="972" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L972" s="42"/>
     </row>
-    <row r="973" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="973" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L973" s="42"/>
     </row>
-    <row r="974" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="974" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L974" s="42"/>
     </row>
-    <row r="975" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="975" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L975" s="42"/>
     </row>
-    <row r="976" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="976" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L976" s="42"/>
     </row>
-    <row r="977" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="977" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L977" s="42"/>
     </row>
-    <row r="978" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="978" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L978" s="42"/>
     </row>
-    <row r="979" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="979" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L979" s="42"/>
     </row>
-    <row r="980" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="980" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L980" s="42"/>
     </row>
-    <row r="981" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="981" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L981" s="42"/>
     </row>
-    <row r="982" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="982" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L982" s="42"/>
     </row>
-    <row r="983" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="983" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L983" s="42"/>
     </row>
-    <row r="984" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="984" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L984" s="42"/>
     </row>
-    <row r="985" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="985" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L985" s="42"/>
     </row>
-    <row r="986" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="986" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L986" s="42"/>
     </row>
-    <row r="987" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="987" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L987" s="42"/>
     </row>
-    <row r="988" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="988" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L988" s="42"/>
     </row>
-    <row r="989" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="989" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L989" s="42"/>
     </row>
-    <row r="990" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="990" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L990" s="42"/>
     </row>
-    <row r="991" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="991" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L991" s="42"/>
     </row>
-    <row r="992" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="992" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L992" s="42"/>
     </row>
-    <row r="993" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="993" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L993" s="42"/>
     </row>
-    <row r="994" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="994" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L994" s="42"/>
     </row>
-    <row r="995" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="995" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L995" s="42"/>
     </row>
-    <row r="996" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="996" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L996" s="42"/>
     </row>
-    <row r="997" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="997" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L997" s="42"/>
     </row>
-    <row r="998" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="998" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L998" s="42"/>
     </row>
-    <row r="999" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="999" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L999" s="42"/>
     </row>
-    <row r="1000" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1000" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1000" s="42"/>
     </row>
-    <row r="1001" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1001" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1001" s="42"/>
     </row>
-    <row r="1002" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1002" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1002" s="42"/>
     </row>
-    <row r="1003" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1003" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1003" s="42"/>
     </row>
-    <row r="1004" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1004" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1004" s="42"/>
     </row>
-    <row r="1005" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1005" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1005" s="42"/>
     </row>
-    <row r="1006" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1006" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1006" s="42"/>
     </row>
-    <row r="1007" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1007" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1007" s="42"/>
     </row>
-    <row r="1008" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1008" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1008" s="42"/>
     </row>
-    <row r="1009" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1009" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1009" s="42"/>
     </row>
-    <row r="1010" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1010" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1010" s="42"/>
     </row>
-    <row r="1011" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1011" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1011" s="42"/>
     </row>
-    <row r="1012" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1012" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1012" s="42"/>
     </row>
-    <row r="1013" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1013" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1013" s="42"/>
     </row>
-    <row r="1014" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1014" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1014" s="42"/>
     </row>
-    <row r="1015" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1015" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1015" s="42"/>
     </row>
-    <row r="1016" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1016" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1016" s="42"/>
     </row>
-    <row r="1017" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1017" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1017" s="42"/>
     </row>
-    <row r="1018" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1018" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1018" s="42"/>
     </row>
-    <row r="1019" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1019" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1019" s="42"/>
     </row>
-    <row r="1020" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1020" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1020" s="42"/>
     </row>
-    <row r="1021" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1021" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1021" s="42"/>
     </row>
-    <row r="1022" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1022" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1022" s="42"/>
     </row>
-    <row r="1023" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1023" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1023" s="42"/>
     </row>
-    <row r="1024" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1024" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1024" s="42"/>
     </row>
-    <row r="1025" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1025" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1025" s="42"/>
     </row>
-    <row r="1026" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1026" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1026" s="42"/>
     </row>
-    <row r="1027" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1027" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1027" s="42"/>
     </row>
-    <row r="1028" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1028" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1028" s="42"/>
     </row>
-    <row r="1029" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1029" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1029" s="42"/>
     </row>
-    <row r="1030" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1030" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1030" s="42"/>
     </row>
-    <row r="1031" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1031" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1031" s="42"/>
     </row>
-    <row r="1032" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1032" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1032" s="42"/>
     </row>
-    <row r="1033" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1033" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1033" s="42"/>
     </row>
-    <row r="1034" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1034" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1034" s="42"/>
     </row>
-    <row r="1035" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1035" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1035" s="42"/>
     </row>
-    <row r="1036" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1036" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1036" s="42"/>
     </row>
-    <row r="1037" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1037" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1037" s="42"/>
     </row>
-    <row r="1038" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1038" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1038" s="42"/>
     </row>
-    <row r="1039" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1039" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1039" s="42"/>
     </row>
-    <row r="1040" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1040" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1040" s="42"/>
     </row>
-    <row r="1041" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1041" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1041" s="42"/>
     </row>
-    <row r="1042" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1042" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1042" s="42"/>
     </row>
-    <row r="1043" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1043" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1043" s="42"/>
     </row>
-    <row r="1044" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1044" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1044" s="42"/>
     </row>
-    <row r="1045" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1045" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1045" s="42"/>
     </row>
-    <row r="1046" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1046" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1046" s="42"/>
     </row>
-    <row r="1047" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1047" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1047" s="42"/>
     </row>
-    <row r="1048" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1048" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1048" s="42"/>
     </row>
-    <row r="1049" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1049" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1049" s="42"/>
     </row>
-    <row r="1050" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1050" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1050" s="42"/>
     </row>
-    <row r="1051" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1051" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1051" s="42"/>
     </row>
-    <row r="1052" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1052" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1052" s="42"/>
     </row>
-    <row r="1053" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1053" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1053" s="42"/>
     </row>
-    <row r="1054" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1054" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1054" s="42"/>
     </row>
-    <row r="1055" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1055" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1055" s="42"/>
     </row>
-    <row r="1056" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1056" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1056" s="42"/>
     </row>
-    <row r="1057" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1057" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1057" s="42"/>
     </row>
-    <row r="1058" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1058" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1058" s="42"/>
     </row>
-    <row r="1059" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1059" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1059" s="42"/>
     </row>
-    <row r="1060" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1060" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1060" s="42"/>
     </row>
-    <row r="1061" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1061" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1061" s="42"/>
     </row>
-    <row r="1062" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1062" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1062" s="42"/>
     </row>
-    <row r="1063" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1063" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1063" s="42"/>
     </row>
-    <row r="1064" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1064" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1064" s="42"/>
     </row>
-    <row r="1065" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1065" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1065" s="42"/>
     </row>
-    <row r="1066" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1066" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1066" s="42"/>
     </row>
-    <row r="1067" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1067" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1067" s="42"/>
     </row>
-    <row r="1068" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1068" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1068" s="42"/>
     </row>
-    <row r="1069" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1069" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1069" s="42"/>
     </row>
-    <row r="1070" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1070" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1070" s="42"/>
     </row>
-    <row r="1071" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1071" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1071" s="42"/>
     </row>
-    <row r="1072" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1072" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1072" s="42"/>
     </row>
-    <row r="1073" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1073" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1073" s="42"/>
     </row>
-    <row r="1074" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1074" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1074" s="42"/>
     </row>
-    <row r="1075" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1075" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1075" s="42"/>
     </row>
-    <row r="1076" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1076" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1076" s="42"/>
     </row>
-    <row r="1077" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1077" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1077" s="42"/>
     </row>
-    <row r="1078" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1078" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1078" s="42"/>
     </row>
-    <row r="1079" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1079" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1079" s="42"/>
     </row>
-    <row r="1080" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1080" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1080" s="42"/>
     </row>
-    <row r="1081" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1081" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1081" s="42"/>
     </row>
-    <row r="1082" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1082" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1082" s="42"/>
     </row>
-    <row r="1083" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1083" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1083" s="42"/>
     </row>
-    <row r="1084" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1084" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1084" s="42"/>
     </row>
-    <row r="1085" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1085" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1085" s="42"/>
     </row>
-    <row r="1086" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1086" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1086" s="42"/>
     </row>
-    <row r="1087" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1087" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1087" s="42"/>
     </row>
-    <row r="1088" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1088" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1088" s="42"/>
     </row>
-    <row r="1089" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1089" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1089" s="42"/>
     </row>
-    <row r="1090" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1090" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1090" s="42"/>
     </row>
-    <row r="1091" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1091" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1091" s="42"/>
     </row>
-    <row r="1092" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1092" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1092" s="42"/>
     </row>
-    <row r="1093" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1093" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1093" s="42"/>
     </row>
-    <row r="1094" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1094" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1094" s="42"/>
     </row>
-    <row r="1095" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1095" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1095" s="42"/>
     </row>
-    <row r="1096" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1096" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1096" s="42"/>
     </row>
-    <row r="1097" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1097" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1097" s="42"/>
     </row>
-    <row r="1098" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1098" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1098" s="42"/>
     </row>
-    <row r="1099" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1099" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1099" s="42"/>
     </row>
-    <row r="1100" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1100" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1100" s="42"/>
     </row>
-    <row r="1101" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1101" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1101" s="42"/>
     </row>
-    <row r="1102" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1102" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1102" s="42"/>
     </row>
-    <row r="1103" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1103" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1103" s="42"/>
     </row>
-    <row r="1104" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1104" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1104" s="42"/>
     </row>
-    <row r="1105" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1105" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1105" s="42"/>
     </row>
-    <row r="1106" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1106" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1106" s="42"/>
     </row>
-    <row r="1107" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1107" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1107" s="42"/>
     </row>
-    <row r="1108" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1108" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1108" s="42"/>
     </row>
-    <row r="1109" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1109" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1109" s="42"/>
     </row>
-    <row r="1110" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1110" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1110" s="42"/>
     </row>
-    <row r="1111" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1111" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1111" s="42"/>
     </row>
-    <row r="1112" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1112" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1112" s="42"/>
     </row>
-    <row r="1113" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1113" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1113" s="42"/>
     </row>
-    <row r="1114" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1114" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1114" s="42"/>
     </row>
-    <row r="1115" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1115" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1115" s="42"/>
     </row>
-    <row r="1116" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1116" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1116" s="42"/>
     </row>
-    <row r="1117" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1117" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1117" s="42"/>
     </row>
-    <row r="1118" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1118" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1118" s="42"/>
     </row>
-    <row r="1119" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1119" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1119" s="42"/>
     </row>
-    <row r="1120" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1120" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1120" s="42"/>
     </row>
-    <row r="1121" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1121" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1121" s="42"/>
     </row>
-    <row r="1122" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1122" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1122" s="42"/>
     </row>
-    <row r="1123" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1123" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1123" s="42"/>
     </row>
-    <row r="1124" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1124" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1124" s="42"/>
     </row>
-    <row r="1125" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1125" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1125" s="42"/>
     </row>
-    <row r="1126" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1126" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1126" s="42"/>
     </row>
-    <row r="1127" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1127" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1127" s="42"/>
     </row>
-    <row r="1128" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1128" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1128" s="42"/>
     </row>
-    <row r="1129" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1129" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1129" s="42"/>
     </row>
-    <row r="1130" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1130" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1130" s="42"/>
     </row>
-    <row r="1131" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1131" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1131" s="42"/>
     </row>
-    <row r="1132" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1132" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1132" s="42"/>
     </row>
-    <row r="1133" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1133" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1133" s="42"/>
     </row>
-    <row r="1134" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1134" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1134" s="42"/>
     </row>
-    <row r="1135" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1135" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1135" s="42"/>
     </row>
-    <row r="1136" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1136" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1136" s="42"/>
     </row>
-    <row r="1137" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1137" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1137" s="42"/>
     </row>
-    <row r="1138" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1138" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1138" s="42"/>
     </row>
-    <row r="1139" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1139" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1139" s="42"/>
     </row>
-    <row r="1140" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1140" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1140" s="42"/>
     </row>
-    <row r="1141" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1141" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1141" s="42"/>
     </row>
-    <row r="1142" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1142" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1142" s="42"/>
     </row>
-    <row r="1143" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1143" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1143" s="42"/>
     </row>
-    <row r="1144" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1144" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1144" s="42"/>
     </row>
-    <row r="1145" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1145" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1145" s="42"/>
     </row>
-    <row r="1146" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1146" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1146" s="42"/>
     </row>
-    <row r="1147" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1147" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1147" s="42"/>
     </row>
-    <row r="1148" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1148" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1148" s="42"/>
     </row>
-    <row r="1149" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1149" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1149" s="42"/>
     </row>
-    <row r="1150" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1150" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1150" s="42"/>
     </row>
-    <row r="1151" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1151" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1151" s="42"/>
     </row>
-    <row r="1152" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1152" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1152" s="42"/>
     </row>
-    <row r="1153" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1153" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1153" s="42"/>
     </row>
-    <row r="1154" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1154" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1154" s="42"/>
     </row>
-    <row r="1155" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1155" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1155" s="42"/>
     </row>
-    <row r="1156" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1156" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1156" s="42"/>
     </row>
-    <row r="1157" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1157" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1157" s="42"/>
     </row>
-    <row r="1158" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1158" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1158" s="42"/>
     </row>
-    <row r="1159" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1159" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1159" s="42"/>
     </row>
-    <row r="1160" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1160" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1160" s="42"/>
     </row>
-    <row r="1161" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1161" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1161" s="42"/>
     </row>
-    <row r="1162" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1162" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1162" s="42"/>
     </row>
-    <row r="1163" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1163" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1163" s="42"/>
     </row>
-    <row r="1164" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1164" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1164" s="42"/>
     </row>
-    <row r="1165" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1165" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1165" s="42"/>
     </row>
-    <row r="1166" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1166" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1166" s="42"/>
     </row>
-    <row r="1167" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1167" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1167" s="42"/>
     </row>
-    <row r="1168" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1168" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1168" s="42"/>
     </row>
-    <row r="1169" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1169" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1169" s="42"/>
     </row>
-    <row r="1170" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1170" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1170" s="42"/>
     </row>
-    <row r="1171" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1171" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1171" s="42"/>
     </row>
-    <row r="1172" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1172" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1172" s="42"/>
     </row>
-    <row r="1173" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1173" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1173" s="42"/>
     </row>
-    <row r="1174" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1174" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1174" s="42"/>
     </row>
-    <row r="1175" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1175" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1175" s="42"/>
     </row>
-    <row r="1176" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1176" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1176" s="42"/>
     </row>
-    <row r="1177" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1177" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1177" s="42"/>
     </row>
-    <row r="1178" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1178" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1178" s="42"/>
     </row>
-    <row r="1179" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1179" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1179" s="42"/>
     </row>
-    <row r="1180" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1180" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1180" s="42"/>
     </row>
-    <row r="1181" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1181" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1181" s="42"/>
     </row>
-    <row r="1182" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1182" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1182" s="42"/>
     </row>
-    <row r="1183" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1183" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1183" s="42"/>
     </row>
-    <row r="1184" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1184" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1184" s="42"/>
     </row>
-    <row r="1185" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1185" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1185" s="42"/>
     </row>
-    <row r="1186" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1186" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1186" s="42"/>
     </row>
-    <row r="1187" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1187" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1187" s="42"/>
     </row>
-    <row r="1188" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1188" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1188" s="42"/>
     </row>
-    <row r="1189" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1189" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1189" s="42"/>
     </row>
-    <row r="1190" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1190" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1190" s="42"/>
     </row>
-    <row r="1191" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1191" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1191" s="42"/>
     </row>
-    <row r="1192" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1192" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1192" s="42"/>
     </row>
-    <row r="1193" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1193" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1193" s="42"/>
     </row>
-    <row r="1194" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1194" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1194" s="42"/>
     </row>
-    <row r="1195" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1195" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1195" s="42"/>
     </row>
-    <row r="1196" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1196" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1196" s="42"/>
     </row>
-    <row r="1197" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1197" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1197" s="42"/>
     </row>
-    <row r="1198" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1198" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1198" s="42"/>
     </row>
-    <row r="1199" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1199" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1199" s="42"/>
     </row>
-    <row r="1200" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1200" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1200" s="42"/>
     </row>
-    <row r="1201" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1201" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1201" s="42"/>
     </row>
-    <row r="1202" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1202" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1202" s="42"/>
     </row>
-    <row r="1203" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1203" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1203" s="42"/>
     </row>
-    <row r="1204" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1204" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1204" s="42"/>
     </row>
-    <row r="1205" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1205" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1205" s="42"/>
     </row>
-    <row r="1206" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1206" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1206" s="42"/>
     </row>
-    <row r="1207" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1207" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1207" s="42"/>
     </row>
-    <row r="1208" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1208" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1208" s="42"/>
     </row>
-    <row r="1209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1209" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1209" s="42"/>
     </row>
-    <row r="1210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1210" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1210" s="42"/>
     </row>
-    <row r="1211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1211" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1211" s="42"/>
     </row>
-    <row r="1212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1212" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1212" s="42"/>
     </row>
-    <row r="1213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1213" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1213" s="42"/>
     </row>
-    <row r="1214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1214" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1214" s="42"/>
     </row>
-    <row r="1215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1215" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1215" s="42"/>
     </row>
-    <row r="1216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1216" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1216" s="42"/>
     </row>
-    <row r="1217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1217" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1217" s="42"/>
     </row>
-    <row r="1218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1218" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1218" s="42"/>
     </row>
-    <row r="1219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1219" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1219" s="42"/>
     </row>
-    <row r="1220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1220" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1220" s="42"/>
     </row>
-    <row r="1221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1221" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1221" s="42"/>
     </row>
-    <row r="1222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1222" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1222" s="42"/>
     </row>
-    <row r="1223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1223" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1223" s="42"/>
     </row>
-    <row r="1224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1224" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1224" s="42"/>
     </row>
-    <row r="1225" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1225" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1225" s="42"/>
     </row>
-    <row r="1226" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1226" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1226" s="42"/>
     </row>
-    <row r="1227" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1227" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1227" s="42"/>
     </row>
-    <row r="1228" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1228" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1228" s="42"/>
     </row>
-    <row r="1229" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1229" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1229" s="42"/>
     </row>
-    <row r="1230" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1230" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1230" s="42"/>
     </row>
-    <row r="1231" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1231" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1231" s="42"/>
     </row>
-    <row r="1232" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1232" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1232" s="42"/>
     </row>
-    <row r="1233" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1233" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1233" s="42"/>
     </row>
-    <row r="1234" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1234" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1234" s="42"/>
     </row>
-    <row r="1235" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1235" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1235" s="42"/>
     </row>
-    <row r="1236" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1236" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1236" s="42"/>
     </row>
-    <row r="1237" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1237" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1237" s="42"/>
     </row>
-    <row r="1238" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1238" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1238" s="42"/>
     </row>
-    <row r="1239" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1239" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1239" s="42"/>
     </row>
-    <row r="1240" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1240" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1240" s="42"/>
     </row>
-    <row r="1241" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1241" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1241" s="42"/>
     </row>
-    <row r="1242" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1242" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1242" s="42"/>
     </row>
-    <row r="1243" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1243" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1243" s="42"/>
     </row>
-    <row r="1244" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1244" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1244" s="42"/>
     </row>
-    <row r="1245" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1245" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1245" s="42"/>
     </row>
-    <row r="1246" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1246" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1246" s="42"/>
     </row>
-    <row r="1247" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1247" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1247" s="42"/>
     </row>
-    <row r="1248" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1248" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1248" s="42"/>
     </row>
-    <row r="1249" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1249" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1249" s="42"/>
     </row>
-    <row r="1250" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1250" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1250" s="42"/>
     </row>
-    <row r="1251" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1251" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1251" s="42"/>
     </row>
-    <row r="1252" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1252" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1252" s="42"/>
     </row>
-    <row r="1253" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1253" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1253" s="42"/>
     </row>
-    <row r="1254" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1254" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1254" s="42"/>
     </row>
-    <row r="1255" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1255" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1255" s="42"/>
     </row>
-    <row r="1256" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1256" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1256" s="42"/>
     </row>
-    <row r="1257" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1257" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1257" s="42"/>
     </row>
-    <row r="1258" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1258" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1258" s="42"/>
     </row>
-    <row r="1259" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1259" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1259" s="42"/>
     </row>
-    <row r="1260" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1260" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1260" s="42"/>
     </row>
-    <row r="1261" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1261" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1261" s="42"/>
     </row>
-    <row r="1262" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1262" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1262" s="42"/>
     </row>
-    <row r="1263" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1263" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1263" s="42"/>
     </row>
-    <row r="1264" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1264" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1264" s="42"/>
     </row>
-    <row r="1265" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1265" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1265" s="42"/>
     </row>
-    <row r="1266" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1266" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1266" s="42"/>
     </row>
-    <row r="1267" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1267" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1267" s="42"/>
     </row>
-    <row r="1268" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1268" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1268" s="42"/>
     </row>
-    <row r="1269" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1269" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1269" s="42"/>
     </row>
-    <row r="1270" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1270" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1270" s="42"/>
     </row>
-    <row r="1271" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1271" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1271" s="42"/>
     </row>
-    <row r="1272" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1272" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1272" s="42"/>
     </row>
-    <row r="1273" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1273" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1273" s="42"/>
     </row>
-    <row r="1274" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1274" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1274" s="42"/>
     </row>
-    <row r="1275" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1275" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1275" s="42"/>
     </row>
-    <row r="1276" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1276" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1276" s="42"/>
     </row>
-    <row r="1277" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1277" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1277" s="42"/>
     </row>
-    <row r="1278" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1278" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1278" s="42"/>
     </row>
-    <row r="1279" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1279" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1279" s="42"/>
     </row>
-    <row r="1280" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1280" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1280" s="42"/>
     </row>
-    <row r="1281" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1281" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1281" s="42"/>
     </row>
-    <row r="1282" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1282" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1282" s="42"/>
     </row>
-    <row r="1283" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1283" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1283" s="42"/>
     </row>
-    <row r="1284" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1284" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1284" s="42"/>
     </row>
-    <row r="1285" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1285" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1285" s="42"/>
     </row>
-    <row r="1286" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1286" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1286" s="42"/>
     </row>
-    <row r="1287" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1287" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1287" s="42"/>
     </row>
-    <row r="1288" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1288" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1288" s="42"/>
     </row>
-    <row r="1289" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1289" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1289" s="42"/>
     </row>
-    <row r="1290" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1290" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1290" s="42"/>
     </row>
-    <row r="1291" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1291" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1291" s="42"/>
     </row>
-    <row r="1292" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1292" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1292" s="42"/>
     </row>
-    <row r="1293" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1293" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1293" s="42"/>
     </row>
-    <row r="1294" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1294" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1294" s="42"/>
     </row>
-    <row r="1295" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1295" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1295" s="42"/>
     </row>
-    <row r="1296" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1296" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1296" s="42"/>
     </row>
-    <row r="1297" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1297" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1297" s="42"/>
     </row>
-    <row r="1298" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1298" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1298" s="42"/>
     </row>
-    <row r="1299" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1299" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1299" s="42"/>
     </row>
-    <row r="1300" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1300" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1300" s="42"/>
     </row>
-    <row r="1301" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1301" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1301" s="42"/>
     </row>
-    <row r="1302" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1302" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1302" s="42"/>
     </row>
-    <row r="1303" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1303" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1303" s="42"/>
     </row>
-    <row r="1304" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1304" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1304" s="42"/>
     </row>
-    <row r="1305" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1305" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1305" s="42"/>
     </row>
-    <row r="1306" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1306" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1306" s="42"/>
     </row>
-    <row r="1307" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1307" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1307" s="42"/>
     </row>
-    <row r="1308" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1308" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1308" s="42"/>
     </row>
-    <row r="1309" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1309" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1309" s="42"/>
     </row>
-    <row r="1310" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1310" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1310" s="42"/>
     </row>
-    <row r="1311" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1311" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1311" s="42"/>
     </row>
-    <row r="1312" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1312" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1312" s="42"/>
     </row>
-    <row r="1313" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1313" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1313" s="42"/>
     </row>
-    <row r="1314" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1314" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1314" s="42"/>
     </row>
-    <row r="1315" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1315" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1315" s="42"/>
     </row>
-    <row r="1316" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1316" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1316" s="42"/>
     </row>
-    <row r="1317" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1317" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1317" s="42"/>
     </row>
-    <row r="1318" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1318" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1318" s="42"/>
     </row>
-    <row r="1319" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1319" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1319" s="42"/>
     </row>
-    <row r="1320" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1320" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1320" s="42"/>
     </row>
-    <row r="1321" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1321" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1321" s="42"/>
     </row>
-    <row r="1322" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1322" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1322" s="42"/>
     </row>
-    <row r="1323" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1323" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1323" s="42"/>
     </row>
-    <row r="1324" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1324" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1324" s="42"/>
     </row>
-    <row r="1325" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1325" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1325" s="42"/>
     </row>
-    <row r="1326" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1326" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1326" s="42"/>
     </row>
-    <row r="1327" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1327" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1327" s="42"/>
     </row>
-    <row r="1328" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1328" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1328" s="42"/>
     </row>
-    <row r="1329" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1329" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1329" s="42"/>
     </row>
-    <row r="1330" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1330" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1330" s="42"/>
     </row>
-    <row r="1331" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1331" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1331" s="42"/>
     </row>
-    <row r="1332" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1332" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1332" s="42"/>
     </row>
-    <row r="1333" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1333" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1333" s="42"/>
     </row>
-    <row r="1334" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1334" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1334" s="42"/>
     </row>
-    <row r="1335" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1335" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1335" s="42"/>
     </row>
-    <row r="1336" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1336" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1336" s="42"/>
     </row>
-    <row r="1337" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1337" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1337" s="42"/>
     </row>
-    <row r="1338" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1338" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1338" s="42"/>
     </row>
-    <row r="1339" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1339" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1339" s="42"/>
     </row>
-    <row r="1340" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1340" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1340" s="42"/>
     </row>
-    <row r="1341" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1341" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1341" s="42"/>
     </row>
-    <row r="1342" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1342" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1342" s="42"/>
     </row>
-    <row r="1343" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1343" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1343" s="42"/>
     </row>
-    <row r="1344" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1344" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1344" s="42"/>
     </row>
-    <row r="1345" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1345" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1345" s="42"/>
     </row>
-    <row r="1346" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1346" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1346" s="42"/>
     </row>
-    <row r="1347" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1347" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1347" s="42"/>
     </row>
-    <row r="1348" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1348" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1348" s="42"/>
     </row>
-    <row r="1349" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1349" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1349" s="42"/>
     </row>
-    <row r="1350" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1350" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1350" s="42"/>
     </row>
-    <row r="1351" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1351" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1351" s="42"/>
     </row>
-    <row r="1352" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1352" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1352" s="42"/>
     </row>
-    <row r="1353" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1353" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1353" s="42"/>
     </row>
-    <row r="1354" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1354" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1354" s="42"/>
     </row>
-    <row r="1355" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1355" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1355" s="42"/>
     </row>
-    <row r="1356" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1356" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1356" s="42"/>
     </row>
-    <row r="1357" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1357" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1357" s="42"/>
     </row>
-    <row r="1358" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1358" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1358" s="42"/>
     </row>
-    <row r="1359" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1359" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1359" s="42"/>
     </row>
-    <row r="1360" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1360" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1360" s="42"/>
     </row>
-    <row r="1361" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1361" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1361" s="42"/>
     </row>
-    <row r="1362" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1362" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1362" s="42"/>
     </row>
-    <row r="1363" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1363" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1363" s="42"/>
     </row>
-    <row r="1364" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1364" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1364" s="42"/>
     </row>
-    <row r="1365" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1365" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1365" s="42"/>
     </row>
-    <row r="1366" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1366" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1366" s="42"/>
     </row>
-    <row r="1367" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1367" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1367" s="42"/>
     </row>
-    <row r="1368" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1368" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1368" s="42"/>
     </row>
-    <row r="1369" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1369" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1369" s="42"/>
     </row>
-    <row r="1370" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1370" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1370" s="42"/>
     </row>
-    <row r="1371" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1371" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1371" s="42"/>
     </row>
-    <row r="1372" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1372" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1372" s="42"/>
     </row>
-    <row r="1373" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1373" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1373" s="42"/>
     </row>
-    <row r="1374" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1374" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1374" s="42"/>
     </row>
-    <row r="1375" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1375" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1375" s="42"/>
     </row>
-    <row r="1376" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1376" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1376" s="42"/>
     </row>
-    <row r="1377" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1377" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1377" s="42"/>
     </row>
-    <row r="1378" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1378" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1378" s="42"/>
     </row>
-    <row r="1379" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1379" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1379" s="42"/>
     </row>
-    <row r="1380" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1380" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1380" s="42"/>
     </row>
-    <row r="1381" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1381" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1381" s="42"/>
     </row>
-    <row r="1382" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1382" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1382" s="42"/>
     </row>
-    <row r="1383" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1383" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1383" s="42"/>
     </row>
-    <row r="1384" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1384" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1384" s="42"/>
     </row>
-    <row r="1385" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1385" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1385" s="42"/>
     </row>
-    <row r="1386" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1386" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1386" s="42"/>
     </row>
-    <row r="1387" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1387" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1387" s="42"/>
     </row>
-    <row r="1388" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1388" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1388" s="42"/>
     </row>
-    <row r="1389" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1389" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1389" s="42"/>
     </row>
-    <row r="1390" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="1390" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L1390" s="42"/>
     </row>
   </sheetData>
